--- a/2025 Representatives.xlsx
+++ b/2025 Representatives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\USA Dance\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209AE36-27AC-4F26-B389-BE2B27B4519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA95911-3EFE-458C-BC82-C3761C805D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="96" windowWidth="20652" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Events" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Couples!$A$1:$L$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Couples!$A$1:$L$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -1370,13 +1370,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3369,12 +3369,12 @@
       <c r="K72" s="14"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>71</v>
@@ -3384,15 +3384,15 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="G73" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F73,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,2,FALSE)),"",VLOOKUP(F73,Events!A:E,2,FALSE)))</f>
-        <v>Batumi - Georgia</v>
-      </c>
-      <c r="H73" s="7">
+        <v/>
+      </c>
+      <c r="H73" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F73,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,3,FALSE)),"",VLOOKUP(F73,Events!A:E,3,FALSE)))</f>
-        <v>45843</v>
+        <v/>
       </c>
       <c r="I73" s="3" t="s">
         <v>7</v>
@@ -3418,12 +3418,12 @@
       <c r="K74" s="14"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>71</v>
@@ -3431,17 +3431,19 @@
       <c r="D75" s="13">
         <v>1</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F75" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G75" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F75,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F75,Events!A:E,2,FALSE)),"",VLOOKUP(F75,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H75" s="7" t="str">
+        <v>New Jersey - United States</v>
+      </c>
+      <c r="H75" s="7">
         <f>IF(ISNA(VLOOKUP(F75,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F75,Events!A:E,3,FALSE)),"",VLOOKUP(F75,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45913</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>7</v>
@@ -3469,67 +3471,78 @@
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="13">
+        <v>9</v>
+      </c>
+      <c r="C77" s="19">
+        <v>1</v>
+      </c>
+      <c r="D77" s="19">
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>205</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G77" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F77,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F77,Events!A:E,2,FALSE)),"",VLOOKUP(F77,Events!A:E,2,FALSE)))</f>
-        <v>New Jersey - United States</v>
+        <v>Platja d'Aro - Spain</v>
       </c>
       <c r="H77" s="7">
         <f>IF(ISNA(VLOOKUP(F77,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F77,Events!A:E,3,FALSE)),"",VLOOKUP(F77,Events!A:E,3,FALSE)))</f>
-        <v>45913</v>
+        <v>45955</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="13"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="11" t="str">
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="13">
+        <v>2</v>
+      </c>
+      <c r="D78" s="13">
+        <v>6</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F78,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F78,Events!A:E,2,FALSE)),"",VLOOKUP(F78,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H78" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F78,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F78,Events!A:E,3,FALSE)),"",VLOOKUP(F78,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="10"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="19">
-        <v>1</v>
-      </c>
-      <c r="D79" s="19">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="C79" s="13">
+        <v>3</v>
+      </c>
+      <c r="D79" s="13">
+        <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>205</v>
@@ -3546,7 +3559,7 @@
         <v>45955</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="13"/>
@@ -3554,16 +3567,16 @@
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="C80" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3580,52 +3593,46 @@
       <c r="K80" s="13"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C81" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="13">
-        <v>2</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F81,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F81,Events!A:E,2,FALSE)),"",VLOOKUP(F81,Events!A:E,2,FALSE)))</f>
-        <v>Platja d'Aro - Spain</v>
-      </c>
-      <c r="H81" s="7">
+        <v/>
+      </c>
+      <c r="H81" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F81,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F81,Events!A:E,3,FALSE)),"",VLOOKUP(F81,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="13"/>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="C82" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -3642,112 +3649,105 @@
       <c r="K82" s="13"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="13">
-        <v>5</v>
-      </c>
-      <c r="D83" s="13">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F83,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F83,Events!A:E,2,FALSE)),"",VLOOKUP(F83,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H83" s="7" t="str">
+    <row r="83" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F83,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F83,Events!A:E,3,FALSE)),"",VLOOKUP(F83,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="3"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="10"/>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="C84" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D84" s="13">
-        <v>5</v>
-      </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G84" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F84,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F84,Events!A:E,2,FALSE)),"",VLOOKUP(F84,Events!A:E,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="H84" s="7" t="str">
+      <c r="H84" s="7">
         <f>IF(ISNA(VLOOKUP(F84,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F84,Events!A:E,3,FALSE)),"",VLOOKUP(F84,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I84" s="3"/>
+        <v>45765</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J84" s="3"/>
       <c r="K84" s="13"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11" t="str">
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="13">
+        <v>2</v>
+      </c>
+      <c r="D85" s="13">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F85,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F85,Events!A:E,2,FALSE)),"",VLOOKUP(F85,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H85" s="7">
         <f>IF(ISNA(VLOOKUP(F85,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F85,Events!A:E,3,FALSE)),"",VLOOKUP(F85,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="10"/>
-    </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1</v>
-      </c>
-      <c r="D86" s="13">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F86,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F86,Events!A:E,2,FALSE)),"",VLOOKUP(F86,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H86" s="7">
+        <v>45765</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F86,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F86,Events!A:E,3,FALSE)),"",VLOOKUP(F86,Events!A:E,3,FALSE)))</f>
-        <v>45765</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="3"/>
+        <v/>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="10"/>
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
@@ -3756,125 +3756,123 @@
       <c r="B87" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C87" s="13">
-        <v>2</v>
+      <c r="C87" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D87" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G87" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F87,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F87,Events!A:E,2,FALSE)),"",VLOOKUP(F87,Events!A:E,2,FALSE)))</f>
-        <v/>
+        <v>Vagos - Portugal</v>
       </c>
       <c r="H87" s="7">
         <f>IF(ISNA(VLOOKUP(F87,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F87,Events!A:E,3,FALSE)),"",VLOOKUP(F87,Events!A:E,3,FALSE)))</f>
-        <v>45765</v>
-      </c>
-      <c r="I87" s="3"/>
+        <v>45927</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="13"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="11" t="str">
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="13">
+        <v>2</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F88,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F88,Events!A:E,2,FALSE)),"",VLOOKUP(F88,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H88" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F88,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F88,Events!A:E,3,FALSE)),"",VLOOKUP(F88,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="10"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="3"/>
     </row>
     <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D89" s="13">
-        <v>1</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F89,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F89,Events!A:E,2,FALSE)),"",VLOOKUP(F89,Events!A:E,2,FALSE)))</f>
-        <v>Vagos - Portugal</v>
-      </c>
-      <c r="H89" s="7">
+        <v/>
+      </c>
+      <c r="H89" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F89,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F89,Events!A:E,3,FALSE)),"",VLOOKUP(F89,Events!A:E,3,FALSE)))</f>
-        <v>45927</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="13"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="13">
-        <v>2</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F90,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F90,Events!A:E,2,FALSE)),"",VLOOKUP(F90,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H90" s="7" t="str">
+    <row r="90" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F90,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F90,Events!A:E,3,FALSE)),"",VLOOKUP(F90,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="3"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="10"/>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>71</v>
+        <v>170</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1</v>
       </c>
       <c r="D91" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G91" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F91,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F91,Events!A:E,2,FALSE)),"",VLOOKUP(F91,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -3883,45 +3881,56 @@
         <f>IF(ISNA(VLOOKUP(F91,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F91,Events!A:E,3,FALSE)),"",VLOOKUP(F91,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I91" s="3"/>
+      <c r="I91" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J91" s="3"/>
       <c r="K91" s="13"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11" t="str">
+    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="13">
+        <v>2</v>
+      </c>
+      <c r="D92" s="13">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F92,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F92,Events!A:E,2,FALSE)),"",VLOOKUP(F92,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H92" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F92,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F92,Events!A:E,3,FALSE)),"",VLOOKUP(F92,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="10"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="3"/>
     </row>
     <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="C93" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3"/>
-      <c r="F93" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F93" s="3"/>
       <c r="G93" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F93,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F93,Events!A:E,2,FALSE)),"",VLOOKUP(F93,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -3930,25 +3939,23 @@
         <f>IF(ISNA(VLOOKUP(F93,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F93,Events!A:E,3,FALSE)),"",VLOOKUP(F93,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="I93" s="3"/>
       <c r="J93" s="3"/>
       <c r="K93" s="13"/>
       <c r="L93" s="3"/>
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C94" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -3965,21 +3972,23 @@
       <c r="K94" s="13"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C95" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G95" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F95,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F95,Events!A:E,2,FALSE)),"",VLOOKUP(F95,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -3988,23 +3997,25 @@
         <f>IF(ISNA(VLOOKUP(F95,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F95,Events!A:E,3,FALSE)),"",VLOOKUP(F95,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I95" s="3"/>
+      <c r="I95" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J95" s="3"/>
       <c r="K95" s="13"/>
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C96" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D96" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -4021,157 +4032,159 @@
       <c r="K96" s="13"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="13">
-        <v>5</v>
-      </c>
-      <c r="D97" s="13">
-        <v>1</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F97,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F97,Events!A:E,2,FALSE)),"",VLOOKUP(F97,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H97" s="7" t="str">
+    <row r="97" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F97,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F97,Events!A:E,3,FALSE)),"",VLOOKUP(F97,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="3"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="10"/>
     </row>
     <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="C98" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D98" s="13">
-        <v>5</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G98" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F98,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F98,Events!A:E,2,FALSE)),"",VLOOKUP(F98,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H98" s="7" t="str">
+        <v>Vagos - Portugal</v>
+      </c>
+      <c r="H98" s="7">
         <f>IF(ISNA(VLOOKUP(F98,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F98,Events!A:E,3,FALSE)),"",VLOOKUP(F98,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I98" s="3"/>
+        <v>45928</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="13"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="11" t="str">
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="13">
+        <v>2</v>
+      </c>
+      <c r="D99" s="13">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F99,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F99,Events!A:E,2,FALSE)),"",VLOOKUP(F99,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H99" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F99,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F99,Events!A:E,3,FALSE)),"",VLOOKUP(F99,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="10"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="3"/>
     </row>
     <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C100" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="13">
-        <v>2</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
       <c r="G100" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F100,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F100,Events!A:E,2,FALSE)),"",VLOOKUP(F100,Events!A:E,2,FALSE)))</f>
-        <v>Vagos - Portugal</v>
-      </c>
-      <c r="H100" s="7">
+        <v/>
+      </c>
+      <c r="H100" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F100,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F100,Events!A:E,3,FALSE)),"",VLOOKUP(F100,Events!A:E,3,FALSE)))</f>
-        <v>45928</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="13"/>
       <c r="L100" s="3"/>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C101" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" s="13">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G101" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F101,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F101,Events!A:E,2,FALSE)),"",VLOOKUP(F101,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H101" s="7" t="str">
+        <v>Vagos - Portugal</v>
+      </c>
+      <c r="H101" s="7">
         <f>IF(ISNA(VLOOKUP(F101,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F101,Events!A:E,3,FALSE)),"",VLOOKUP(F101,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I101" s="3"/>
+        <v>45928</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="13"/>
       <c r="L101" s="3"/>
     </row>
     <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C102" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D102" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -4188,55 +4201,40 @@
       <c r="K102" s="13"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="13">
-        <v>4</v>
-      </c>
-      <c r="D103" s="13">
-        <v>1</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F103,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F103,Events!A:E,2,FALSE)),"",VLOOKUP(F103,Events!A:E,2,FALSE)))</f>
-        <v>Vagos - Portugal</v>
-      </c>
-      <c r="H103" s="7">
+    <row r="103" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F103,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F103,Events!A:E,3,FALSE)),"",VLOOKUP(F103,Events!A:E,3,FALSE)))</f>
-        <v>45928</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="3"/>
+        <v/>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="10"/>
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="13">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D104" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G104" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F104,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F104,Events!A:E,2,FALSE)),"",VLOOKUP(F104,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -4245,9 +4243,11 @@
         <f>IF(ISNA(VLOOKUP(F104,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F104,Events!A:E,3,FALSE)),"",VLOOKUP(F104,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I104" s="3"/>
+      <c r="I104" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J104" s="3"/>
-      <c r="K104" s="13"/>
+      <c r="K104" s="18"/>
       <c r="L104" s="3"/>
     </row>
     <row r="105" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4269,131 +4269,138 @@
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D106" s="13">
-        <v>1</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C106" s="19">
+        <v>1</v>
+      </c>
+      <c r="D106" s="19">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F106" s="3" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G106" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F106,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F106,Events!A:E,2,FALSE)),"",VLOOKUP(F106,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H106" s="7" t="str">
+        <v>Elblag - Poland</v>
+      </c>
+      <c r="H106" s="7">
         <f>IF(ISNA(VLOOKUP(F106,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F106,Events!A:E,3,FALSE)),"",VLOOKUP(F106,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45955</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J106" s="3"/>
-      <c r="K106" s="18"/>
+      <c r="K106" s="13"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="11" t="str">
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="13">
+        <v>2</v>
+      </c>
+      <c r="D107" s="13">
+        <v>5</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F107,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F107,Events!A:E,2,FALSE)),"",VLOOKUP(F107,Events!A:E,2,FALSE)))</f>
+        <v>Elblag - Poland</v>
+      </c>
+      <c r="H107" s="7">
         <f>IF(ISNA(VLOOKUP(F107,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F107,Events!A:E,3,FALSE)),"",VLOOKUP(F107,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="10"/>
+        <v>45955</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="3"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C108" s="19">
-        <v>1</v>
-      </c>
-      <c r="D108" s="19">
-        <v>1</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C108" s="13">
+        <v>3</v>
+      </c>
+      <c r="D108" s="13">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
       <c r="G108" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F108,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F108,Events!A:E,2,FALSE)),"",VLOOKUP(F108,Events!A:E,2,FALSE)))</f>
-        <v>Elblag - Poland</v>
-      </c>
-      <c r="H108" s="7">
+        <v/>
+      </c>
+      <c r="H108" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F108,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F108,Events!A:E,3,FALSE)),"",VLOOKUP(F108,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="13"/>
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="C109" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" s="3"/>
-      <c r="F109" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F109,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F109,Events!A:E,2,FALSE)),"",VLOOKUP(F109,Events!A:E,2,FALSE)))</f>
-        <v>Elblag - Poland</v>
-      </c>
-      <c r="H109" s="7">
+        <v/>
+      </c>
+      <c r="H109" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F109,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F109,Events!A:E,3,FALSE)),"",VLOOKUP(F109,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="13"/>
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" s="13">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D110" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -4412,16 +4419,16 @@
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="13">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D111" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -4438,300 +4445,300 @@
       <c r="K111" s="13"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" s="13">
-        <v>6</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F112,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F112,Events!A:E,2,FALSE)),"",VLOOKUP(F112,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H112" s="7" t="str">
+    <row r="112" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F112,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F112,Events!A:E,3,FALSE)),"",VLOOKUP(F112,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="3"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="10"/>
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1</v>
       </c>
       <c r="D113" s="13">
-        <v>3</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G113" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F113,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F113,Events!A:E,2,FALSE)),"",VLOOKUP(F113,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H113" s="7" t="str">
+        <v>Vienna - Austria</v>
+      </c>
+      <c r="H113" s="7">
         <f>IF(ISNA(VLOOKUP(F113,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F113,Events!A:E,3,FALSE)),"",VLOOKUP(F113,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I113" s="3"/>
+        <v>45856</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J113" s="3"/>
       <c r="K113" s="13"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="11" t="str">
+    <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="13">
+        <v>2</v>
+      </c>
+      <c r="D114" s="13">
+        <v>1</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F114,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F114,Events!A:E,2,FALSE)),"",VLOOKUP(F114,Events!A:E,2,FALSE)))</f>
+        <v>Vienna - Austria</v>
+      </c>
+      <c r="H114" s="7">
         <f>IF(ISNA(VLOOKUP(F114,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F114,Events!A:E,3,FALSE)),"",VLOOKUP(F114,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="10"/>
+        <v>45856</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C115" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D115" s="13">
-        <v>2</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
       <c r="G115" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F115,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F115,Events!A:E,2,FALSE)),"",VLOOKUP(F115,Events!A:E,2,FALSE)))</f>
-        <v>Vienna - Austria</v>
-      </c>
-      <c r="H115" s="7">
+        <v/>
+      </c>
+      <c r="H115" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F115,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F115,Events!A:E,3,FALSE)),"",VLOOKUP(F115,Events!A:E,3,FALSE)))</f>
-        <v>45856</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="13"/>
       <c r="L115" s="3"/>
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C116" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116" s="13">
-        <v>1</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
       <c r="G116" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F116,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F116,Events!A:E,2,FALSE)),"",VLOOKUP(F116,Events!A:E,2,FALSE)))</f>
-        <v>Vienna - Austria</v>
-      </c>
-      <c r="H116" s="7">
+        <v/>
+      </c>
+      <c r="H116" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F116,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F116,Events!A:E,3,FALSE)),"",VLOOKUP(F116,Events!A:E,3,FALSE)))</f>
-        <v>45856</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="13"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" s="13">
-        <v>3</v>
-      </c>
-      <c r="D117" s="13">
-        <v>3</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F117,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F117,Events!A:E,2,FALSE)),"",VLOOKUP(F117,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H117" s="7" t="str">
+    <row r="117" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F117,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F117,Events!A:E,3,FALSE)),"",VLOOKUP(F117,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="3"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="10"/>
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" s="13">
-        <v>4</v>
-      </c>
-      <c r="D118" s="13">
-        <v>5</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="C118" s="19">
+        <v>1</v>
+      </c>
+      <c r="D118" s="19">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G118" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F118,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F118,Events!A:E,2,FALSE)),"",VLOOKUP(F118,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H118" s="7" t="str">
+        <v>Bremen - Germany</v>
+      </c>
+      <c r="H118" s="7">
         <f>IF(ISNA(VLOOKUP(F118,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F118,Events!A:E,3,FALSE)),"",VLOOKUP(F118,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I118" s="3"/>
+        <v>45814</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J118" s="3"/>
       <c r="K118" s="13"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="11" t="str">
+    <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" s="13">
+        <v>2</v>
+      </c>
+      <c r="D119" s="13">
+        <v>3</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F119,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F119,Events!A:E,2,FALSE)),"",VLOOKUP(F119,Events!A:E,2,FALSE)))</f>
+        <v>Bremen - Germany</v>
+      </c>
+      <c r="H119" s="7">
         <f>IF(ISNA(VLOOKUP(F119,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F119,Events!A:E,3,FALSE)),"",VLOOKUP(F119,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="10"/>
+        <v>45814</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="3"/>
     </row>
     <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C120" s="19">
-        <v>1</v>
-      </c>
-      <c r="D120" s="19">
-        <v>1</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C120" s="13">
+        <v>3</v>
+      </c>
+      <c r="D120" s="13">
+        <v>5</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
       <c r="G120" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F120,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F120,Events!A:E,2,FALSE)),"",VLOOKUP(F120,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
-      </c>
-      <c r="H120" s="7">
+        <v/>
+      </c>
+      <c r="H120" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F120,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F120,Events!A:E,3,FALSE)),"",VLOOKUP(F120,Events!A:E,3,FALSE)))</f>
-        <v>45814</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="13"/>
       <c r="L120" s="3"/>
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C121" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D121" s="13">
-        <v>3</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
       <c r="G121" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F121,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F121,Events!A:E,2,FALSE)),"",VLOOKUP(F121,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
-      </c>
-      <c r="H121" s="7">
+        <v/>
+      </c>
+      <c r="H121" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F121,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F121,Events!A:E,3,FALSE)),"",VLOOKUP(F121,Events!A:E,3,FALSE)))</f>
-        <v>45814</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="13"/>
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C122" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D122" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -4750,16 +4757,16 @@
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C123" s="13">
-        <v>4</v>
+        <v>183</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D123" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -4776,49 +4783,40 @@
       <c r="K123" s="13"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" s="13">
-        <v>5</v>
-      </c>
-      <c r="D124" s="13">
-        <v>2</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F124,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F124,Events!A:E,2,FALSE)),"",VLOOKUP(F124,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H124" s="7" t="str">
+    <row r="124" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F124,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F124,Events!A:E,3,FALSE)),"",VLOOKUP(F124,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="3"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="10"/>
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>182</v>
+        <v>65</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D125" s="13">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="C125" s="19">
+        <v>1</v>
+      </c>
+      <c r="D125" s="19">
+        <v>1</v>
       </c>
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G125" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F125,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F125,Events!A:E,2,FALSE)),"",VLOOKUP(F125,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -4827,45 +4825,60 @@
         <f>IF(ISNA(VLOOKUP(F125,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F125,Events!A:E,3,FALSE)),"",VLOOKUP(F125,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I125" s="3"/>
+      <c r="I125" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J125" s="3"/>
       <c r="K125" s="13"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="11" t="str">
+    <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C126" s="13">
+        <v>2</v>
+      </c>
+      <c r="D126" s="13">
+        <v>3</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F126,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F126,Events!A:E,2,FALSE)),"",VLOOKUP(F126,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H126" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F126,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F126,Events!A:E,3,FALSE)),"",VLOOKUP(F126,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="14"/>
-      <c r="L126" s="10"/>
+      <c r="I126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" s="3"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="3"/>
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="19">
-        <v>1</v>
-      </c>
-      <c r="D127" s="19">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C127" s="13">
+        <v>3</v>
+      </c>
+      <c r="D127" s="13">
+        <v>2</v>
       </c>
       <c r="E127" s="3"/>
-      <c r="F127" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F127" s="3"/>
       <c r="G127" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F127,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F127,Events!A:E,2,FALSE)),"",VLOOKUP(F127,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -4874,257 +4887,238 @@
         <f>IF(ISNA(VLOOKUP(F127,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F127,Events!A:E,3,FALSE)),"",VLOOKUP(F127,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I127" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="13"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C128" s="13">
-        <v>2</v>
-      </c>
-      <c r="D128" s="13">
-        <v>3</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F128,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F128,Events!A:E,2,FALSE)),"",VLOOKUP(F128,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H128" s="7" t="str">
+    <row r="128" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F128,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F128,Events!A:E,3,FALSE)),"",VLOOKUP(F128,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J128" s="3"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="3"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="10"/>
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="13">
-        <v>3</v>
+        <v>190</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D129" s="13">
-        <v>2</v>
-      </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G129" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F129,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F129,Events!A:E,2,FALSE)),"",VLOOKUP(F129,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H129" s="7" t="str">
+        <v>Tokyo - Japan</v>
+      </c>
+      <c r="H129" s="7">
         <f>IF(ISNA(VLOOKUP(F129,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F129,Events!A:E,3,FALSE)),"",VLOOKUP(F129,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45803</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="13"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="11" t="str">
+    <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130" s="13">
+        <v>2</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F130,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F130,Events!A:E,2,FALSE)),"",VLOOKUP(F130,Events!A:E,2,FALSE)))</f>
+        <v>Tokyo - Japan</v>
+      </c>
+      <c r="H130" s="7">
         <f>IF(ISNA(VLOOKUP(F130,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F130,Events!A:E,3,FALSE)),"",VLOOKUP(F130,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="10"/>
+        <v>45803</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="3"/>
     </row>
     <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D131" s="13">
-        <v>1</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F131,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F131,Events!A:E,2,FALSE)),"",VLOOKUP(F131,Events!A:E,2,FALSE)))</f>
-        <v>Tokyo - Japan</v>
-      </c>
-      <c r="H131" s="7">
+        <v/>
+      </c>
+      <c r="H131" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F131,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F131,Events!A:E,3,FALSE)),"",VLOOKUP(F131,Events!A:E,3,FALSE)))</f>
-        <v>45803</v>
+        <v/>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="13"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D132" s="13">
-        <v>2</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F132,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F132,Events!A:E,2,FALSE)),"",VLOOKUP(F132,Events!A:E,2,FALSE)))</f>
-        <v>Tokyo - Japan</v>
-      </c>
-      <c r="H132" s="7">
+    <row r="132" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F132,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F132,Events!A:E,3,FALSE)),"",VLOOKUP(F132,Events!A:E,3,FALSE)))</f>
-        <v>45803</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="3"/>
+        <v/>
+      </c>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="10"/>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D133" s="13">
-        <v>3</v>
-      </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G133" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F133,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F133,Events!A:E,2,FALSE)),"",VLOOKUP(F133,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H133" s="7" t="str">
+        <v>Leipzig - Germany</v>
+      </c>
+      <c r="H133" s="7">
         <f>IF(ISNA(VLOOKUP(F133,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F133,Events!A:E,3,FALSE)),"",VLOOKUP(F133,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45948</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="13"/>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="11" t="str">
+    <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" s="13">
+        <v>2</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G134" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F134,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F134,Events!A:E,2,FALSE)),"",VLOOKUP(F134,Events!A:E,2,FALSE)))</f>
+        <v>Leipzig - Germany</v>
+      </c>
+      <c r="H134" s="7">
         <f>IF(ISNA(VLOOKUP(F134,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F134,Events!A:E,3,FALSE)),"",VLOOKUP(F134,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="10"/>
-    </row>
-    <row r="135" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D135" s="13">
-        <v>1</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G135" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F135,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F135,Events!A:E,2,FALSE)),"",VLOOKUP(F135,Events!A:E,2,FALSE)))</f>
-        <v>Leipzig - Germany</v>
-      </c>
-      <c r="H135" s="7">
+        <v>45948</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F135,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F135,Events!A:E,3,FALSE)),"",VLOOKUP(F135,Events!A:E,3,FALSE)))</f>
-        <v>45948</v>
-      </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="3"/>
+        <v/>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="10"/>
     </row>
     <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
       <c r="C136" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D136" s="13">
-        <v>2</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>206</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E136" s="3"/>
       <c r="F136" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G136" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F136,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F136,Events!A:E,2,FALSE)),"",VLOOKUP(F136,Events!A:E,2,FALSE)))</f>
-        <v>Leipzig - Germany</v>
+        <v>Sibiu - Romania</v>
       </c>
       <c r="H136" s="7">
         <f>IF(ISNA(VLOOKUP(F136,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F136,Events!A:E,3,FALSE)),"",VLOOKUP(F136,Events!A:E,3,FALSE)))</f>
-        <v>45948</v>
+        <v>45963</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -5149,27 +5143,35 @@
       <c r="L137" s="10"/>
     </row>
     <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="C138" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D138" s="13">
         <v>1</v>
       </c>
-      <c r="E138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F138" s="3" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="G138" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F138,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F138,Events!A:E,2,FALSE)),"",VLOOKUP(F138,Events!A:E,2,FALSE)))</f>
-        <v>Sibiu - Romania</v>
+        <v>London - United Kingdom</v>
       </c>
       <c r="H138" s="7">
         <f>IF(ISNA(VLOOKUP(F138,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F138,Events!A:E,3,FALSE)),"",VLOOKUP(F138,Events!A:E,3,FALSE)))</f>
-        <v>45963</v>
-      </c>
-      <c r="I138" s="3"/>
+        <v>45927</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J138" s="3"/>
       <c r="K138" s="13"/>
       <c r="L138" s="3"/>
@@ -5192,31 +5194,25 @@
       <c r="L139" s="10"/>
     </row>
     <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D140" s="13">
         <v>1</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G140" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F140,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F140,Events!A:E,2,FALSE)),"",VLOOKUP(F140,Events!A:E,2,FALSE)))</f>
-        <v>London - United Kingdom</v>
-      </c>
-      <c r="H140" s="7">
+        <v/>
+      </c>
+      <c r="H140" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F140,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F140,Events!A:E,3,FALSE)),"",VLOOKUP(F140,Events!A:E,3,FALSE)))</f>
-        <v>45927</v>
+        <v/>
       </c>
       <c r="I140" s="3" t="s">
         <v>7</v>
@@ -5243,7 +5239,9 @@
       <c r="L141" s="10"/>
     </row>
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="B142" s="3"/>
       <c r="C142" s="13" t="s">
         <v>71</v>
@@ -5251,23 +5249,25 @@
       <c r="D142" s="13">
         <v>1</v>
       </c>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F142" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="G142" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F142,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F142,Events!A:E,2,FALSE)),"",VLOOKUP(F142,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H142" s="7" t="str">
+        <v>Sarajevo - Bosnia and Herzegovina</v>
+      </c>
+      <c r="H142" s="7">
         <f>IF(ISNA(VLOOKUP(F142,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F142,Events!A:E,3,FALSE)),"",VLOOKUP(F142,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45989</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J142" s="3"/>
-      <c r="K142" s="13"/>
+      <c r="K142" s="18"/>
       <c r="L142" s="3"/>
     </row>
     <row r="143" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5302,15 +5302,15 @@
         <v>205</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G144" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F144,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F144,Events!A:E,2,FALSE)),"",VLOOKUP(F144,Events!A:E,2,FALSE)))</f>
-        <v>Sarajevo - Bosnia and Herzegovina</v>
+        <v>Tbilisi - Georgia</v>
       </c>
       <c r="H144" s="7">
         <f>IF(ISNA(VLOOKUP(F144,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F144,Events!A:E,3,FALSE)),"",VLOOKUP(F144,Events!A:E,3,FALSE)))</f>
-        <v>45989</v>
+        <v>45794</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>7</v>
@@ -5319,77 +5319,73 @@
       <c r="K144" s="18"/>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="11" t="str">
+    <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D145" s="13">
+        <v>2</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F145,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F145,Events!A:E,2,FALSE)),"",VLOOKUP(F145,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H145" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F145,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F145,Events!A:E,3,FALSE)),"",VLOOKUP(F145,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="14"/>
-      <c r="L145" s="10"/>
-    </row>
-    <row r="146" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D146" s="13">
-        <v>1</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G146" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F146,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F146,Events!A:E,2,FALSE)),"",VLOOKUP(F146,Events!A:E,2,FALSE)))</f>
-        <v>Tbilisi - Georgia</v>
-      </c>
-      <c r="H146" s="7">
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="3"/>
+    </row>
+    <row r="146" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F146,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F146,Events!A:E,3,FALSE)),"",VLOOKUP(F146,Events!A:E,3,FALSE)))</f>
-        <v>45794</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J146" s="3"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="3"/>
+        <v/>
+      </c>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="10"/>
     </row>
     <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D147" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+      <c r="F147" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="G147" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F147,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F147,Events!A:E,2,FALSE)),"",VLOOKUP(F147,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H147" s="7" t="str">
+        <v>Sarajevo - Bosnia and Herzegovina</v>
+      </c>
+      <c r="H147" s="7">
         <f>IF(ISNA(VLOOKUP(F147,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F147,Events!A:E,3,FALSE)),"",VLOOKUP(F147,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I147" s="3"/>
+        <v>45990</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J147" s="3"/>
       <c r="K147" s="18"/>
       <c r="L147" s="3"/>
@@ -5412,7 +5408,9 @@
       <c r="L148" s="10"/>
     </row>
     <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3"/>
+      <c r="A149" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B149" s="3"/>
       <c r="C149" s="13" t="s">
         <v>71</v>
@@ -5420,17 +5418,19 @@
       <c r="D149" s="13">
         <v>1</v>
       </c>
-      <c r="E149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F149" s="3" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G149" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F149,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F149,Events!A:E,2,FALSE)),"",VLOOKUP(F149,Events!A:E,2,FALSE)))</f>
-        <v>Sarajevo - Bosnia and Herzegovina</v>
+        <v>Tbilisi - Georgia</v>
       </c>
       <c r="H149" s="7">
         <f>IF(ISNA(VLOOKUP(F149,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F149,Events!A:E,3,FALSE)),"",VLOOKUP(F149,Events!A:E,3,FALSE)))</f>
-        <v>45990</v>
+        <v>45794</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>7</v>
@@ -5439,77 +5439,77 @@
       <c r="K149" s="18"/>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="11" t="str">
+    <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D150" s="13">
+        <v>2</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F150,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F150,Events!A:E,2,FALSE)),"",VLOOKUP(F150,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H150" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F150,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F150,Events!A:E,3,FALSE)),"",VLOOKUP(F150,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="14"/>
-      <c r="L150" s="10"/>
-    </row>
-    <row r="151" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D151" s="13">
-        <v>1</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G151" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F151,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F151,Events!A:E,2,FALSE)),"",VLOOKUP(F151,Events!A:E,2,FALSE)))</f>
-        <v>Tbilisi - Georgia</v>
-      </c>
-      <c r="H151" s="7">
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="3"/>
+    </row>
+    <row r="151" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F151,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F151,Events!A:E,3,FALSE)),"",VLOOKUP(F151,Events!A:E,3,FALSE)))</f>
-        <v>45794</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J151" s="3"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="3"/>
+        <v/>
+      </c>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="14"/>
+      <c r="L151" s="10"/>
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D152" s="13">
-        <v>2</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="G152" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F152,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F152,Events!A:E,2,FALSE)),"",VLOOKUP(F152,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H152" s="7" t="str">
+        <v>Sarajevo - Bosnia and Herzegovina</v>
+      </c>
+      <c r="H152" s="7">
         <f>IF(ISNA(VLOOKUP(F152,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F152,Events!A:E,3,FALSE)),"",VLOOKUP(F152,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I152" s="3"/>
+        <v>45991</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J152" s="3"/>
       <c r="K152" s="18"/>
       <c r="L152" s="3"/>
@@ -5546,15 +5546,15 @@
         <v>205</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G154" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F154,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F154,Events!A:E,2,FALSE)),"",VLOOKUP(F154,Events!A:E,2,FALSE)))</f>
-        <v>Sarajevo - Bosnia and Herzegovina</v>
+        <v>Bremen - Germany</v>
       </c>
       <c r="H154" s="7">
         <f>IF(ISNA(VLOOKUP(F154,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F154,Events!A:E,3,FALSE)),"",VLOOKUP(F154,Events!A:E,3,FALSE)))</f>
-        <v>45991</v>
+        <v>45816</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>7</v>
@@ -5580,70 +5580,21 @@
       <c r="K155" s="14"/>
       <c r="L155" s="10"/>
     </row>
-    <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D156" s="13">
-        <v>1</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G156" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F156,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F156,Events!A:E,2,FALSE)),"",VLOOKUP(F156,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
-      </c>
-      <c r="H156" s="7">
-        <f>IF(ISNA(VLOOKUP(F156,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F156,Events!A:E,3,FALSE)),"",VLOOKUP(F156,Events!A:E,3,FALSE)))</f>
-        <v>45816</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J156" s="3"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="3"/>
-    </row>
-    <row r="157" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F157,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F157,Events!A:E,3,FALSE)),"",VLOOKUP(F157,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="14"/>
-      <c r="L157" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A17:A19 A28:A29 A31:A32 A34:A37 A39:A43 A45:A46 A47:B48 A49:A63 A83:A99 A101:A157 A65:A81 A2:A8 A10 A12:A13 A21:A23 A25">
+  <autoFilter ref="A1:L146" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A17:A19 A28:A29 A31:A32 A34:A37 A39:A43 A45:A46 A47:B48 A49:A63 A81:A97 A99:A155 A2:A8 A10 A12:A13 A21:A23 A25 A65:A79">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>OR(I2="Place",I2="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="A80">
     <cfRule type="expression" dxfId="30" priority="28">
-      <formula>OR(I83="Place",I83="Rank",#REF!="Place",#REF!="Rank")</formula>
+      <formula>OR(I81="Place",I81="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A98">
     <cfRule type="expression" dxfId="29" priority="32">
-      <formula>OR(I102="Place",I102="Rank",#REF!="Place",#REF!="Rank")</formula>
+      <formula>OR(I100="Place",I100="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
@@ -5686,19 +5637,19 @@
       <formula>OR(#REF!="Place",#REF!="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B19 B28:B29 B31:B32 B34:B37 B39:B43 B45:B46 B49:B63 B83:B99 B101:B157 B65:B81 B2:B8 B10 B12:B13 B21:B23 B25">
+  <conditionalFormatting sqref="B17:B19 B28:B29 B31:B32 B34:B37 B39:B43 B45:B46 B49:B63 B81:B97 B99:B155 B2:B8 B10 B12:B13 B21:B23 B25 B65:B79">
     <cfRule type="expression" dxfId="20" priority="26">
       <formula>OR(I2="Place",I2="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B80">
     <cfRule type="expression" dxfId="19" priority="30">
-      <formula>OR(I83="Place",I83="Rank",#REF!="Place",#REF!="Rank")</formula>
+      <formula>OR(I81="Place",I81="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
+  <conditionalFormatting sqref="B98">
     <cfRule type="expression" dxfId="18" priority="34">
-      <formula>OR(I102="Place",I102="Rank",#REF!="Place",#REF!="Rank")</formula>
+      <formula>OR(I100="Place",I100="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
@@ -5750,7 +5701,7 @@
       <formula>"Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H157">
+  <conditionalFormatting sqref="H2:H155">
     <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
@@ -5782,10 +5733,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E157" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E155" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Required,Required,Prepared,Sent,Accepted,Rejected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I157" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I155" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Place, Rank"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5798,13 +5749,13 @@
           <x14:formula1>
             <xm:f>Events!$A$6:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>F157 F155 F153 F145 F148 F88 F143 F141 F139 F137 F134 F130 F126 F119 F114 F107 F105 F99 F92 F74 F85 F78 F76 F150 F62 F55 F3 F43 F39 F35 F28 F22:F24 F19 F13:F14 F8:F9 F5 F1 F50 F72 F68 F70 F26</xm:sqref>
+          <xm:sqref>F155 F153 F151 F143 F146 F86 F141 F139 F137 F135 F132 F128 F124 F117 F112 F105 F103 F97 F90 F83 F76 F74 F148 F62 F55 F3 F43 F39 F35 F28 F22:F24 F19 F13:F14 F8:F9 F5 F1 F50 F72 F68 F70 F26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA1A5BDD-BDAF-4F80-8DDA-7A1604F21FB4}">
           <x14:formula1>
             <xm:f>Events!$A$6:$A$55</xm:f>
           </x14:formula1>
-          <xm:sqref>F156 F154 F151:F152 F149 F146:F147 F144 F142 F140 F138 F131:F133 F108:F113 F127:F129 F120:F125 F115:F118 F100:F104 F106 F36:F38 F93:F98 F89:F91 F86:F87 F73 F77 F75 F71 F63:F67 F56:F61 F51:F54 F44:F49 F40:F42 F135:F136 F29:F34 F20:F21 F79:F84 F69 F9:F12 F14:F18 F23:F27</xm:sqref>
+          <xm:sqref>F154 F152 F149:F150 F147 F144:F145 F142 F140 F138 F136 F129:F131 F106:F111 F125:F127 F118:F123 F113:F116 F98:F102 F104 F36:F38 F91:F96 F87:F89 F84:F85 F75 F73 F71 F63:F67 F56:F61 F51:F54 F44:F49 F40:F42 F133:F134 F29:F34 F20:F21 F77:F82 F69 F9:F12 F14:F18 F23:F27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BAD7700-9E34-42C3-AD29-A8CD551F0849}">
           <x14:formula1>

--- a/2025 Representatives.xlsx
+++ b/2025 Representatives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\USA Dance\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA95911-3EFE-458C-BC82-C3761C805D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A484A73-273E-4276-98D4-66263CF5DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="96" windowWidth="20652" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="96" windowWidth="14952" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couples" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Maksym Stepanskyi</t>
   </si>
   <si>
-    <t>WDSF letter</t>
-  </si>
-  <si>
     <t>Daniil Babenko</t>
   </si>
   <si>
@@ -664,6 +661,9 @@
   </si>
   <si>
     <t>Hannah Bundus (Chiou)</t>
+  </si>
+  <si>
+    <t>Ivitation letter</t>
   </si>
 </sst>
 </file>
@@ -1373,10 +1373,10 @@
   <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1409,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>48</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F2,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F2,Events!A:E,2,FALSE)),"",VLOOKUP(F2,Events!A:E,2,FALSE)))</f>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>71</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F4,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F4,Events!A:E,2,FALSE)),"",VLOOKUP(F4,Events!A:E,2,FALSE)))</f>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C9" s="13">
         <v>2</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>11</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>46</v>
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C12" s="13">
         <v>4</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C14" s="13">
         <v>3</v>
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>46</v>
@@ -1777,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -1799,10 +1799,10 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C17" s="13">
         <v>4</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C18" s="13">
         <v>5</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>71</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>19</v>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>46</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>45</v>
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="str">
@@ -2067,10 +2067,10 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C26" s="13">
         <v>4</v>
@@ -2079,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C27" s="13">
         <v>5</v>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>14</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>46</v>
@@ -2192,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>14</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>45</v>
@@ -2226,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="str">
@@ -2244,10 +2244,10 @@
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C32" s="13">
         <v>5</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C33" s="13">
         <v>6</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>71</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>71</v>
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="str">
@@ -2375,7 +2375,7 @@
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>45</v>
@@ -2387,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="str">
@@ -2405,7 +2405,7 @@
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>46</v>
@@ -2417,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>20</v>
@@ -2456,10 +2456,10 @@
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>71</v>
@@ -2468,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F40,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F40,Events!A:E,2,FALSE)),"",VLOOKUP(F40,Events!A:E,2,FALSE)))</f>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>71</v>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G41" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F41,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F41,Events!A:E,2,FALSE)),"",VLOOKUP(F41,Events!A:E,2,FALSE)))</f>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>45</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
@@ -2577,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G44" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F44,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F44,Events!A:E,2,FALSE)),"",VLOOKUP(F44,Events!A:E,2,FALSE)))</f>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>71</v>
@@ -2611,10 +2611,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F45,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F45,Events!A:E,2,FALSE)),"",VLOOKUP(F45,Events!A:E,2,FALSE)))</f>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>71</v>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>71</v>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>71</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>71</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>71</v>
@@ -2774,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G51" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F51,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F51,Events!A:E,2,FALSE)),"",VLOOKUP(F51,Events!A:E,2,FALSE)))</f>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>45</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>71</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C56" s="13">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>15</v>
@@ -2938,7 +2938,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="13">
         <v>2</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>15</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C58" s="13">
         <v>3</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C59" s="13">
         <v>4</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>71</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>16</v>
@@ -3146,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>16</v>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="C65" s="13">
         <v>3</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>41</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C67" s="13">
         <v>5</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>71</v>
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>21</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>71</v>
@@ -3332,10 +3332,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G71" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F71,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F71,Events!A:E,2,FALSE)),"",VLOOKUP(F71,Events!A:E,2,FALSE)))</f>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G73" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F73,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,2,FALSE)),"",VLOOKUP(F73,Events!A:E,2,FALSE)))</f>
@@ -3432,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G75" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F75,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F75,Events!A:E,2,FALSE)),"",VLOOKUP(F75,Events!A:E,2,FALSE)))</f>
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>17</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="C78" s="13">
         <v>2</v>
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>17</v>
@@ -3595,10 +3595,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C81" s="13">
         <v>5</v>
@@ -3623,10 +3623,10 @@
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C82" s="13">
         <v>6</v>
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>18</v>
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>18</v>
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>22</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C91" s="13">
         <v>1</v>
@@ -3890,10 +3890,10 @@
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C92" s="13">
         <v>2</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C94" s="13">
         <v>4</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>60</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="C96" s="13">
         <v>6</v>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>24</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>51</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G104" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F104,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F104,Events!A:E,2,FALSE)),"",VLOOKUP(F104,Events!A:E,2,FALSE)))</f>
@@ -4269,11 +4269,11 @@
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C106" s="19">
         <v>1</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>25</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C107" s="13">
         <v>2</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>71</v>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>26</v>
@@ -4605,11 +4605,11 @@
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="C118" s="19">
         <v>1</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>27</v>
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>27</v>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C121" s="13">
         <v>4</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C122" s="13">
         <v>5</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>71</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C126" s="13">
         <v>2</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>70</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>71</v>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>31</v>
@@ -4943,10 +4943,10 @@
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>71</v>
@@ -4955,18 +4955,16 @@
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F130" s="3"/>
       <c r="G130" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F130,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F130,Events!A:E,2,FALSE)),"",VLOOKUP(F130,Events!A:E,2,FALSE)))</f>
-        <v>Tokyo - Japan</v>
-      </c>
-      <c r="H130" s="7">
+        <v/>
+      </c>
+      <c r="H130" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F130,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F130,Events!A:E,3,FALSE)),"",VLOOKUP(F130,Events!A:E,3,FALSE)))</f>
-        <v>45803</v>
+        <v/>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -4975,10 +4973,10 @@
     </row>
     <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>71</v>
@@ -4986,15 +4984,19 @@
       <c r="D131" s="13">
         <v>3</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G131" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F131,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F131,Events!A:E,2,FALSE)),"",VLOOKUP(F131,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H131" s="7" t="str">
+        <v>Tokyo - Japan</v>
+      </c>
+      <c r="H131" s="7">
         <f>IF(ISNA(VLOOKUP(F131,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F131,Events!A:E,3,FALSE)),"",VLOOKUP(F131,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45803</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -5020,10 +5022,10 @@
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>71</v>
@@ -5032,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>32</v>
@@ -5052,10 +5054,10 @@
     </row>
     <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>71</v>
@@ -5064,7 +5066,7 @@
         <v>2</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>32</v>
@@ -5144,10 +5146,10 @@
     </row>
     <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>71</v>
@@ -5156,10 +5158,10 @@
         <v>1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G138" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F138,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F138,Events!A:E,2,FALSE)),"",VLOOKUP(F138,Events!A:E,2,FALSE)))</f>
@@ -5204,7 +5206,7 @@
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G140" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F140,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F140,Events!A:E,2,FALSE)),"",VLOOKUP(F140,Events!A:E,2,FALSE)))</f>
@@ -5240,7 +5242,7 @@
     </row>
     <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="13" t="s">
@@ -5250,10 +5252,10 @@
         <v>1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G142" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F142,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F142,Events!A:E,2,FALSE)),"",VLOOKUP(F142,Events!A:E,2,FALSE)))</f>
@@ -5289,7 +5291,7 @@
     </row>
     <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="13" t="s">
@@ -5299,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G144" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F144,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F144,Events!A:E,2,FALSE)),"",VLOOKUP(F144,Events!A:E,2,FALSE)))</f>
@@ -5321,7 +5323,7 @@
     </row>
     <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="13" t="s">
@@ -5373,7 +5375,7 @@
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G147" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F147,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F147,Events!A:E,2,FALSE)),"",VLOOKUP(F147,Events!A:E,2,FALSE)))</f>
@@ -5409,7 +5411,7 @@
     </row>
     <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="13" t="s">
@@ -5419,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G149" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F149,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F149,Events!A:E,2,FALSE)),"",VLOOKUP(F149,Events!A:E,2,FALSE)))</f>
@@ -5441,7 +5443,7 @@
     </row>
     <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="13" t="s">
@@ -5484,7 +5486,7 @@
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="13" t="s">
@@ -5494,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G152" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F152,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F152,Events!A:E,2,FALSE)),"",VLOOKUP(F152,Events!A:E,2,FALSE)))</f>
@@ -5533,7 +5535,7 @@
     </row>
     <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="13" t="s">
@@ -5543,10 +5545,10 @@
         <v>1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G154" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F154,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F154,Events!A:E,2,FALSE)),"",VLOOKUP(F154,Events!A:E,2,FALSE)))</f>
@@ -5755,7 +5757,7 @@
           <x14:formula1>
             <xm:f>Events!$A$6:$A$55</xm:f>
           </x14:formula1>
-          <xm:sqref>F154 F152 F149:F150 F147 F144:F145 F142 F140 F138 F136 F129:F131 F106:F111 F125:F127 F118:F123 F113:F116 F98:F102 F104 F36:F38 F91:F96 F87:F89 F84:F85 F75 F73 F71 F63:F67 F56:F61 F51:F54 F44:F49 F40:F42 F133:F134 F29:F34 F20:F21 F77:F82 F69 F9:F12 F14:F18 F23:F27</xm:sqref>
+          <xm:sqref>F154 F152 F149:F150 F147 F144:F145 F142 F140 F138 F136 F23:F27 F106:F111 F125:F127 F118:F123 F113:F116 F98:F102 F104 F36:F38 F91:F96 F87:F89 F84:F85 F75 F73 F71 F63:F67 F56:F61 F51:F54 F44:F49 F40:F42 F133:F134 F29:F34 F20:F21 F77:F82 F69 F9:F12 F14:F18 F129:F131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BAD7700-9E34-42C3-AD29-A8CD551F0849}">
           <x14:formula1>
@@ -5787,7 +5789,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>10</v>
@@ -5804,7 +5806,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -5815,7 +5817,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5826,7 +5828,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5837,7 +5839,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5851,7 +5853,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="8">
         <v>45942</v>
@@ -5868,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="8">
         <v>45963</v>
@@ -5885,7 +5887,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="8">
         <v>45983</v>
@@ -5902,7 +5904,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="8">
         <v>45955</v>
@@ -5919,7 +5921,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="8">
         <v>45855</v>
@@ -5936,7 +5938,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="8">
         <v>45816</v>
@@ -5950,10 +5952,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="8">
         <v>45976</v>
@@ -5967,10 +5969,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="8">
         <v>45815</v>
@@ -5984,10 +5986,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="8">
         <v>45969</v>
@@ -6004,7 +6006,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="8">
         <v>45962</v>
@@ -6021,7 +6023,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="8">
         <v>45942</v>
@@ -6038,7 +6040,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="8">
         <v>45990</v>
@@ -6052,7 +6054,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18">
@@ -6064,10 +6066,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="8">
         <v>45913</v>
@@ -6084,7 +6086,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="8">
         <v>45955</v>
@@ -6115,7 +6117,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="8">
         <v>45927</v>
@@ -6129,7 +6131,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -6140,7 +6142,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -6166,7 +6168,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="8">
         <v>45928</v>
@@ -6180,7 +6182,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28">
@@ -6190,7 +6192,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -6201,7 +6203,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -6215,7 +6217,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="8">
         <v>45955</v>
@@ -6232,7 +6234,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="8">
         <v>45856</v>
@@ -6246,7 +6248,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -6257,7 +6259,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -6271,7 +6273,7 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="8">
         <v>45814</v>
@@ -6299,7 +6301,7 @@
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="8">
         <v>45803</v>
@@ -6316,7 +6318,7 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="8">
         <v>45948</v>
@@ -6333,7 +6335,7 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="8">
         <v>45963</v>
@@ -6358,7 +6360,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -6369,10 +6371,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" s="8">
         <v>45927</v>
@@ -6386,7 +6388,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43">
@@ -6417,10 +6419,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="8">
         <v>45843</v>
@@ -6452,10 +6454,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="8">
         <v>45989</v>
@@ -6466,10 +6468,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="8">
         <v>45794</v>
@@ -6480,10 +6482,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="8">
         <v>45990</v>
@@ -6494,10 +6496,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
         <v>114</v>
-      </c>
-      <c r="B53" t="s">
-        <v>115</v>
       </c>
       <c r="C53" s="8">
         <v>45794</v>
@@ -6508,10 +6510,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="8">
         <v>45816</v>
@@ -6522,10 +6524,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="8">
         <v>45991</v>

--- a/2025 Representatives.xlsx
+++ b/2025 Representatives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\USA Dance\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A484A73-273E-4276-98D4-66263CF5DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A737E1AE-466C-4CE3-BCD2-1CD6571AAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="96" windowWidth="14952" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,10 +1373,10 @@
   <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>16</v>
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>94</v>

--- a/2025 Representatives.xlsx
+++ b/2025 Representatives.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\USA Dance\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e238e71ce846790e/Documents/USA Dance/Ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A737E1AE-466C-4CE3-BCD2-1CD6571AAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A737E1AE-466C-4CE3-BCD2-1CD6571AAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0F7371-7B90-49AC-BF29-6C193E6DE5D6}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="96" windowWidth="14952" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="0" windowWidth="21660" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couples" sheetId="1" r:id="rId1"/>
     <sheet name="Events" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Couples!$A$1:$L$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Couples!$A$1:$L$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -814,34 +814,6 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -908,6 +880,34 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1373,10 +1373,10 @@
   <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
@@ -1777,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
@@ -2020,17 +2020,23 @@
       <c r="D24" s="13">
         <v>5</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F24,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F24,Events!A:E,2,FALSE)),"",VLOOKUP(F24,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H24" s="7" t="str">
+        <v>Elblag - Poland</v>
+      </c>
+      <c r="H24" s="7">
         <f>IF(ISNA(VLOOKUP(F24,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F24,Events!A:E,3,FALSE)),"",VLOOKUP(F24,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I24" s="3"/>
+        <v>45955</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="13"/>
       <c r="L24" s="3"/>
@@ -2079,22 +2085,17 @@
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F26,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F26,Events!A:E,2,FALSE)),"",VLOOKUP(F26,Events!A:E,2,FALSE)))</f>
-        <v>Elblag - Poland</v>
-      </c>
-      <c r="H26" s="7">
+        <v/>
+      </c>
+      <c r="H26" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F26,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F26,Events!A:E,3,FALSE)),"",VLOOKUP(F26,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="13"/>
       <c r="L26" s="3"/>
@@ -2192,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>14</v>
@@ -2417,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>20</v>
@@ -2611,22 +2612,18 @@
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F45,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F45,Events!A:E,2,FALSE)),"",VLOOKUP(F45,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
-      </c>
-      <c r="H45" s="7">
+        <v/>
+      </c>
+      <c r="H45" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F45,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F45,Events!A:E,3,FALSE)),"",VLOOKUP(F45,Events!A:E,3,FALSE)))</f>
-        <v>45815</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="13"/>
       <c r="L45" s="3"/>
@@ -2915,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>15</v>
@@ -4985,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>31</v>
@@ -5583,35 +5580,35 @@
       <c r="L155" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L146" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A17:A19 A28:A29 A31:A32 A34:A37 A39:A43 A45:A46 A47:B48 A49:A63 A81:A97 A99:A155 A2:A8 A10 A12:A13 A21:A23 A25 A65:A79">
+  <autoFilter ref="A1:L155" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A2:A8 A10 A12:A13 A17:A19 A21:A23 A25 A28:A29 A31:A32 A34:A37 A39:A43 A45:A46 A47:B48 A49:A63 A65:A79 A81:A97 A99:A155">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>OR(I2="Place",I2="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="30" priority="28">
-      <formula>OR(I81="Place",I81="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="29" priority="32">
-      <formula>OR(I100="Place",I100="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="30" priority="65">
+      <formula>OR(I11="Place",I11="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="28" priority="35">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>OR(I16="Place",I16="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20 A15">
-    <cfRule type="expression" dxfId="27" priority="3">
+  <conditionalFormatting sqref="A15 A20">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>OR(I14="Place",I14="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>OR(I26="Place",I26="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="26" priority="69">
+      <formula>OR(I24="Place",I24="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
@@ -5634,104 +5631,104 @@
       <formula>OR(I48="Place",I48="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>OR(I81="Place",I81="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="expression" dxfId="20" priority="32">
+      <formula>OR(I100="Place",I100="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="expression" dxfId="21" priority="63">
+    <cfRule type="expression" dxfId="19" priority="63">
       <formula>OR(#REF!="Place",#REF!="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B19 B28:B29 B31:B32 B34:B37 B39:B43 B45:B46 B49:B63 B81:B97 B99:B155 B2:B8 B10 B12:B13 B21:B23 B25 B65:B79">
-    <cfRule type="expression" dxfId="20" priority="26">
+  <conditionalFormatting sqref="B2:B8 B10 B12:B13 B17:B19 B21:B23 B25 B28:B29 B31:B32 B34:B37 B39:B43 B45:B46 B49:B63 B65:B79 B81:B97 B99:B155">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>OR(I2="Place",I2="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="17" priority="67">
+      <formula>OR(I11="Place",I11="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="16" priority="36">
+      <formula>OR(I16="Place",I16="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 B20">
+    <cfRule type="expression" dxfId="15" priority="4">
+      <formula>OR(I14="Place",I14="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>OR(I26="Place",I26="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="13" priority="71">
+      <formula>OR(I24="Place",I24="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>OR(I32="Place",I32="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>OR(I30="Place",I30="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>OR(I40="Place",I40="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="9" priority="44">
+      <formula>OR(I48="Place",I48="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="19" priority="30">
+    <cfRule type="expression" dxfId="8" priority="30">
       <formula>OR(I81="Place",I81="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="expression" dxfId="18" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>OR(I100="Place",I100="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="17" priority="36">
-      <formula>OR(I16="Place",I16="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20 B15">
-    <cfRule type="expression" dxfId="16" priority="4">
-      <formula>OR(I14="Place",I14="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="15" priority="10">
-      <formula>OR(I26="Place",I26="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>OR(I32="Place",I32="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="13" priority="6">
-      <formula>OR(I30="Place",I30="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>OR(I40="Place",I40="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="11" priority="44">
-      <formula>OR(I48="Place",I48="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"Accepted"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"Sent"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"Required"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H155">
-    <cfRule type="cellIs" dxfId="6" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="5" priority="17" stopIfTrue="1" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="1" priority="17" stopIfTrue="1" timePeriod="thisMonth">
       <formula>AND(MONTH(H2)=MONTH(TODAY()),YEAR(H2)=YEAR(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="4" priority="20" stopIfTrue="1" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="0" priority="20" stopIfTrue="1" timePeriod="nextMonth">
       <formula>AND(MONTH(H2)=MONTH(EDATE(TODAY(),0+1)),YEAR(H2)=YEAR(EDATE(TODAY(),0+1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="3" priority="65">
-      <formula>OR(I11="Place",I11="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="2" priority="67">
-      <formula>OR(I11="Place",I11="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="1" priority="69">
-      <formula>OR(I24="Place",I24="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="0" priority="71">
-      <formula>OR(I24="Place",I24="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -5751,13 +5748,13 @@
           <x14:formula1>
             <xm:f>Events!$A$6:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>F155 F153 F151 F143 F146 F86 F141 F139 F137 F135 F132 F128 F124 F117 F112 F105 F103 F97 F90 F83 F76 F74 F148 F62 F55 F3 F43 F39 F35 F28 F22:F24 F19 F13:F14 F8:F9 F5 F1 F50 F72 F68 F70 F26</xm:sqref>
+          <xm:sqref>F155 F153 F151 F143 F146 F86 F141 F139 F137 F135 F132 F128 F124 F117 F112 F105 F103 F97 F90 F83 F76 F74 F148 F62 F55 F3 F43 F39 F35 F28 F19 F13:F14 F8:F9 F5 F1 F50 F72 F68 F70 F22:F24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA1A5BDD-BDAF-4F80-8DDA-7A1604F21FB4}">
           <x14:formula1>
             <xm:f>Events!$A$6:$A$55</xm:f>
           </x14:formula1>
-          <xm:sqref>F154 F152 F149:F150 F147 F144:F145 F142 F140 F138 F136 F23:F27 F106:F111 F125:F127 F118:F123 F113:F116 F98:F102 F104 F36:F38 F91:F96 F87:F89 F84:F85 F75 F73 F71 F63:F67 F56:F61 F51:F54 F44:F49 F40:F42 F133:F134 F29:F34 F20:F21 F77:F82 F69 F9:F12 F14:F18 F129:F131</xm:sqref>
+          <xm:sqref>F154 F152 F149:F150 F147 F144:F145 F142 F140 F138 F136 F106:F111 F125:F127 F118:F123 F113:F116 F98:F102 F104 F36:F38 F91:F96 F87:F89 F84:F85 F75 F73 F71 F63:F67 F56:F61 F51:F54 F129:F131 F40:F42 F133:F134 F29:F34 F20:F21 F77:F82 F69 F9:F12 F14:F18 F44:F49 F27 F23:F25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BAD7700-9E34-42C3-AD29-A8CD551F0849}">
           <x14:formula1>
@@ -5775,8 +5772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2025 Representatives.xlsx
+++ b/2025 Representatives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e238e71ce846790e/Documents/USA Dance/Ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A737E1AE-466C-4CE3-BCD2-1CD6571AAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0F7371-7B90-49AC-BF29-6C193E6DE5D6}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{A737E1AE-466C-4CE3-BCD2-1CD6571AAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BDD9794-F98A-4A26-89BB-086CED2B22E4}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="0" windowWidth="21660" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1368" yWindow="0" windowWidth="21672" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couples" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -1083,6 +1083,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1373,10 +1377,10 @@
   <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E129" sqref="E129"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3120,7 +3124,7 @@
       </c>
       <c r="H63" s="7">
         <f>IF(ISNA(VLOOKUP(F63,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F63,Events!A:E,3,FALSE)),"",VLOOKUP(F63,Events!A:E,3,FALSE)))</f>
-        <v>45942</v>
+        <v>45948</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>7</v>
@@ -3154,7 +3158,7 @@
       </c>
       <c r="H64" s="7">
         <f>IF(ISNA(VLOOKUP(F64,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F64,Events!A:E,3,FALSE)),"",VLOOKUP(F64,Events!A:E,3,FALSE)))</f>
-        <v>45942</v>
+        <v>45948</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>6</v>
@@ -3379,17 +3383,19 @@
       <c r="D73" s="13">
         <v>1</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="F73" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G73" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F73,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,2,FALSE)),"",VLOOKUP(F73,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H73" s="7" t="str">
+        <v>Brno - Czechia</v>
+      </c>
+      <c r="H73" s="7">
         <f>IF(ISNA(VLOOKUP(F73,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,3,FALSE)),"",VLOOKUP(F73,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45946</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>7</v>
@@ -5772,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6023,7 +6029,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="8">
-        <v>45942</v>
+        <v>45948</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -6053,7 +6059,12 @@
       <c r="A18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="8">
+        <v>45946</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>

--- a/2025 Representatives.xlsx
+++ b/2025 Representatives.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e238e71ce846790e/Documents/USA Dance/Ranking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{A737E1AE-466C-4CE3-BCD2-1CD6571AAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BDD9794-F98A-4A26-89BB-086CED2B22E4}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{A737E1AE-466C-4CE3-BCD2-1CD6571AAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F1116C-6163-4102-B217-1FB4A63BF070}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="0" windowWidth="21672" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Couples" sheetId="1" r:id="rId1"/>
     <sheet name="Events" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Couples!$A$1:$L$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Couples!$A$1:$L$158</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="209">
   <si>
     <t>Date</t>
   </si>
@@ -1374,13 +1374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,22 +1606,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F9,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F9,Events!A:E,2,FALSE)),"",VLOOKUP(F9,Events!A:E,2,FALSE)))</f>
-        <v>Chisinau - Moldova</v>
-      </c>
-      <c r="H9" s="7">
+        <v/>
+      </c>
+      <c r="H9" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F9,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F9,Events!A:E,3,FALSE)),"",VLOOKUP(F9,Events!A:E,3,FALSE)))</f>
-        <v>45942</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="13"/>
       <c r="L9" s="3"/>
@@ -1673,17 +1669,23 @@
       <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F11,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F11,Events!A:E,2,FALSE)),"",VLOOKUP(F11,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H11" s="7" t="str">
+        <v>Chisinau - Moldova</v>
+      </c>
+      <c r="H11" s="7">
         <f>IF(ISNA(VLOOKUP(F11,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F11,Events!A:E,3,FALSE)),"",VLOOKUP(F11,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I11" s="3"/>
+        <v>45942</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="13"/>
       <c r="L11" s="3"/>
@@ -1747,22 +1749,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F14,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F14,Events!A:E,2,FALSE)),"",VLOOKUP(F14,Events!A:E,2,FALSE)))</f>
-        <v>Sibiu - Romania</v>
-      </c>
-      <c r="H14" s="7">
+        <v/>
+      </c>
+      <c r="H14" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F14,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F14,Events!A:E,3,FALSE)),"",VLOOKUP(F14,Events!A:E,3,FALSE)))</f>
-        <v>45963</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="13"/>
       <c r="L14" s="3"/>
@@ -1814,17 +1812,23 @@
       <c r="D16" s="13">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F16,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F16,Events!A:E,2,FALSE)),"",VLOOKUP(F16,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H16" s="7" t="str">
+        <v>Sibiu - Romania</v>
+      </c>
+      <c r="H16" s="7">
         <f>IF(ISNA(VLOOKUP(F16,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F16,Events!A:E,3,FALSE)),"",VLOOKUP(F16,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I16" s="3"/>
+        <v>45963</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="13"/>
       <c r="L16" s="3"/>
@@ -1916,407 +1920,405 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F20,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F20,Events!A:E,2,FALSE)),"",VLOOKUP(F20,Events!A:E,2,FALSE)))</f>
-        <v>Burgas - Bulgaria</v>
-      </c>
-      <c r="H20" s="7">
+        <v/>
+      </c>
+      <c r="H20" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F20,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F20,Events!A:E,3,FALSE)),"",VLOOKUP(F20,Events!A:E,3,FALSE)))</f>
-        <v>45983</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="13"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G21" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F21,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F21,Events!A:E,2,FALSE)),"",VLOOKUP(F21,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H21" s="7" t="str">
+        <v>Burgas - Bulgaria</v>
+      </c>
+      <c r="H21" s="7">
         <f>IF(ISNA(VLOOKUP(F21,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F21,Events!A:E,3,FALSE)),"",VLOOKUP(F21,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I21" s="3"/>
+        <v>45983</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="13"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11" t="str">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F22,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F22,Events!A:E,2,FALSE)),"",VLOOKUP(F22,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H22" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F22,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F22,Events!A:E,3,FALSE)),"",VLOOKUP(F22,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="10"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="13">
-        <v>3</v>
+        <v>141</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D23" s="13">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F23,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F23,Events!A:E,2,FALSE)),"",VLOOKUP(F23,Events!A:E,2,FALSE)))</f>
-        <v>Elblag - Poland</v>
-      </c>
-      <c r="H23" s="7">
+        <v/>
+      </c>
+      <c r="H23" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F23,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F23,Events!A:E,3,FALSE)),"",VLOOKUP(F23,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="13"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F24,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F24,Events!A:E,2,FALSE)),"",VLOOKUP(F24,Events!A:E,2,FALSE)))</f>
-        <v>Elblag - Poland</v>
-      </c>
-      <c r="H24" s="7">
+        <v/>
+      </c>
+      <c r="H24" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F24,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F24,Events!A:E,3,FALSE)),"",VLOOKUP(F24,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="13"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F25,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F25,Events!A:E,2,FALSE)),"",VLOOKUP(F25,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H25" s="7" t="str">
+    <row r="25" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F25,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F25,Events!A:E,3,FALSE)),"",VLOOKUP(F25,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="3"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C26" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G26" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F26,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F26,Events!A:E,2,FALSE)),"",VLOOKUP(F26,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H26" s="7" t="str">
+        <v>Elblag - Poland</v>
+      </c>
+      <c r="H26" s="7">
         <f>IF(ISNA(VLOOKUP(F26,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F26,Events!A:E,3,FALSE)),"",VLOOKUP(F26,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I26" s="3"/>
+        <v>45955</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="13"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13">
         <v>5</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G27" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F27,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F27,Events!A:E,2,FALSE)),"",VLOOKUP(F27,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H27" s="7" t="str">
+        <v>Elblag - Poland</v>
+      </c>
+      <c r="H27" s="7">
         <f>IF(ISNA(VLOOKUP(F27,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F27,Events!A:E,3,FALSE)),"",VLOOKUP(F27,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I27" s="3"/>
+        <v>45955</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="13"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11" t="str">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F28,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F28,Events!A:E,2,FALSE)),"",VLOOKUP(F28,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H28" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F28,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F28,Events!A:E,3,FALSE)),"",VLOOKUP(F28,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="10"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="19">
-        <v>1</v>
-      </c>
-      <c r="D29" s="19">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="C29" s="13">
+        <v>4</v>
+      </c>
+      <c r="D29" s="13">
+        <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="G29" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F29,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F29,Events!A:E,2,FALSE)),"",VLOOKUP(F29,Events!A:E,2,FALSE)))</f>
-        <v>Wuxi - China</v>
-      </c>
-      <c r="H29" s="7">
+        <v/>
+      </c>
+      <c r="H29" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F29,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F29,Events!A:E,3,FALSE)),"",VLOOKUP(F29,Events!A:E,3,FALSE)))</f>
-        <v>45855</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="13"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C30" s="13">
-        <v>2</v>
-      </c>
-      <c r="D30" s="13">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F30,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F30,Events!A:E,2,FALSE)),"",VLOOKUP(F30,Events!A:E,2,FALSE)))</f>
-        <v>Wuxi - China</v>
-      </c>
-      <c r="H30" s="7">
+        <v/>
+      </c>
+      <c r="H30" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F30,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F30,Events!A:E,3,FALSE)),"",VLOOKUP(F30,Events!A:E,3,FALSE)))</f>
-        <v>45855</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="13"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="13">
-        <v>3</v>
-      </c>
-      <c r="D31" s="13">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F31,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F31,Events!A:E,2,FALSE)),"",VLOOKUP(F31,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H31" s="7" t="str">
+    <row r="31" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F31,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F31,Events!A:E,3,FALSE)),"",VLOOKUP(F31,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="3"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="13">
-        <v>5</v>
-      </c>
-      <c r="D32" s="13">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G32" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F32,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F32,Events!A:E,2,FALSE)),"",VLOOKUP(F32,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H32" s="7" t="str">
+        <v>Wuxi - China</v>
+      </c>
+      <c r="H32" s="7">
         <f>IF(ISNA(VLOOKUP(F32,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F32,Events!A:E,3,FALSE)),"",VLOOKUP(F32,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I32" s="3"/>
+        <v>45855</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="13"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C33" s="13">
-        <v>6</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="13">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G33" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F33,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F33,Events!A:E,2,FALSE)),"",VLOOKUP(F33,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H33" s="7" t="str">
+        <v>Wuxi - China</v>
+      </c>
+      <c r="H33" s="7">
         <f>IF(ISNA(VLOOKUP(F33,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F33,Events!A:E,3,FALSE)),"",VLOOKUP(F33,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I33" s="3"/>
+        <v>45855</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="13"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="C34" s="13">
+        <v>3</v>
       </c>
       <c r="D34" s="13">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F34,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F34,Events!A:E,2,FALSE)),"",VLOOKUP(F34,Events!A:E,2,FALSE)))</f>
@@ -2331,39 +2333,48 @@
       <c r="K34" s="13"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11" t="str">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="13">
+        <v>5</v>
+      </c>
+      <c r="D35" s="13">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F35,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F35,Events!A:E,2,FALSE)),"",VLOOKUP(F35,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H35" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F35,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F35,Events!A:E,3,FALSE)),"",VLOOKUP(F35,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="10"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="13">
+        <v>6</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F36,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F36,Events!A:E,2,FALSE)),"",VLOOKUP(F36,Events!A:E,2,FALSE)))</f>
@@ -2380,20 +2391,18 @@
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D37" s="13">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F37,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F37,Events!A:E,2,FALSE)),"",VLOOKUP(F37,Events!A:E,2,FALSE)))</f>
@@ -2408,216 +2417,212 @@
       <c r="K37" s="13"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="13" t="s">
+    <row r="38" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F38,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F38,Events!A:E,3,FALSE)),"",VLOOKUP(F38,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="13">
-        <v>3</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F38,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F38,Events!A:E,2,FALSE)),"",VLOOKUP(F38,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
-      </c>
-      <c r="H38" s="7">
-        <f>IF(ISNA(VLOOKUP(F38,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F38,Events!A:E,3,FALSE)),"",VLOOKUP(F38,Events!A:E,3,FALSE)))</f>
-        <v>45816</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11" t="str">
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F39,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F39,Events!A:E,2,FALSE)),"",VLOOKUP(F39,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H39" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F39,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F39,Events!A:E,3,FALSE)),"",VLOOKUP(F39,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="10"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D40" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F40,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F40,Events!A:E,2,FALSE)),"",VLOOKUP(F40,Events!A:E,2,FALSE)))</f>
-        <v>Salaspils - Latvia</v>
-      </c>
-      <c r="H40" s="7">
+        <v/>
+      </c>
+      <c r="H40" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F40,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F40,Events!A:E,3,FALSE)),"",VLOOKUP(F40,Events!A:E,3,FALSE)))</f>
-        <v>45976</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="13"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D41" s="13">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F41" s="3" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="G41" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F41,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F41,Events!A:E,2,FALSE)),"",VLOOKUP(F41,Events!A:E,2,FALSE)))</f>
-        <v>Salaspils - Latvia</v>
+        <v>Bremen - Germany</v>
       </c>
       <c r="H41" s="7">
         <f>IF(ISNA(VLOOKUP(F41,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F41,Events!A:E,3,FALSE)),"",VLOOKUP(F41,Events!A:E,3,FALSE)))</f>
-        <v>45976</v>
-      </c>
-      <c r="I41" s="3"/>
+        <v>45816</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="13"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="13" t="s">
+    <row r="42" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F42,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F42,Events!A:E,3,FALSE)),"",VLOOKUP(F42,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="13">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F42,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F42,Events!A:E,2,FALSE)),"",VLOOKUP(F42,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H42" s="7" t="str">
-        <f>IF(ISNA(VLOOKUP(F42,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F42,Events!A:E,3,FALSE)),"",VLOOKUP(F42,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="11" t="str">
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F43,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F43,Events!A:E,2,FALSE)),"",VLOOKUP(F43,Events!A:E,2,FALSE)))</f>
+        <v>Salaspils - Latvia</v>
+      </c>
+      <c r="H43" s="7">
         <f>IF(ISNA(VLOOKUP(F43,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F43,Events!A:E,3,FALSE)),"",VLOOKUP(F43,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="10"/>
+        <v>45976</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F44,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F44,Events!A:E,2,FALSE)),"",VLOOKUP(F44,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
+        <v>Salaspils - Latvia</v>
       </c>
       <c r="H44" s="7">
         <f>IF(ISNA(VLOOKUP(F44,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F44,Events!A:E,3,FALSE)),"",VLOOKUP(F44,Events!A:E,3,FALSE)))</f>
-        <v>45815</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>45976</v>
+      </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="13"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="13">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F45,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F45,Events!A:E,2,FALSE)),"",VLOOKUP(F45,Events!A:E,2,FALSE)))</f>
@@ -2632,76 +2637,73 @@
       <c r="K45" s="13"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="13">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F46,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F46,Events!A:E,2,FALSE)),"",VLOOKUP(F46,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H46" s="7" t="str">
+    <row r="46" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F46,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F46,Events!A:E,3,FALSE)),"",VLOOKUP(F46,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="3"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="13">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G47" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F47,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F47,Events!A:E,2,FALSE)),"",VLOOKUP(F47,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H47" s="7" t="str">
+        <v>Bremen - Germany</v>
+      </c>
+      <c r="H47" s="7">
         <f>IF(ISNA(VLOOKUP(F47,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F47,Events!A:E,3,FALSE)),"",VLOOKUP(F47,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I47" s="3"/>
+        <v>45815</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="13"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="13">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F48,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F48,Events!A:E,2,FALSE)),"",VLOOKUP(F48,Events!A:E,2,FALSE)))</f>
@@ -2718,16 +2720,16 @@
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2741,72 +2743,77 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="13"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11" t="str">
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="13">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F50,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F50,Events!A:E,2,FALSE)),"",VLOOKUP(F50,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H50" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F50,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F50,Events!A:E,3,FALSE)),"",VLOOKUP(F50,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="10"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F51,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F51,Events!A:E,2,FALSE)),"",VLOOKUP(F51,Events!A:E,2,FALSE)))</f>
-        <v>Vila Nova de Famalicão - Portugal</v>
-      </c>
-      <c r="H51" s="7">
+        <v/>
+      </c>
+      <c r="H51" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F51,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F51,Events!A:E,3,FALSE)),"",VLOOKUP(F51,Events!A:E,3,FALSE)))</f>
-        <v>45969</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="13"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2818,65 +2825,54 @@
         <f>IF(ISNA(VLOOKUP(F52,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F52,Events!A:E,3,FALSE)),"",VLOOKUP(F52,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="13"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="13">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F53,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F53,Events!A:E,2,FALSE)),"",VLOOKUP(F53,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H53" s="7" t="str">
+    <row r="53" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F53,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F53,Events!A:E,3,FALSE)),"",VLOOKUP(F53,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="3"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="10"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D54" s="13">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G54" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F54,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F54,Events!A:E,2,FALSE)),"",VLOOKUP(F54,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H54" s="7" t="str">
+        <v>Vila Nova de Famalicão - Portugal</v>
+      </c>
+      <c r="H54" s="7">
         <f>IF(ISNA(VLOOKUP(F54,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F54,Events!A:E,3,FALSE)),"",VLOOKUP(F54,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45969</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>7</v>
@@ -2885,81 +2881,88 @@
       <c r="K54" s="13"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11" t="str">
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="13">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F55,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F55,Events!A:E,2,FALSE)),"",VLOOKUP(F55,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H55" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F55,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F55,Events!A:E,3,FALSE)),"",VLOOKUP(F55,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="10"/>
+      <c r="I55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="13">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D56" s="13">
         <v>3</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
       <c r="G56" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F56,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F56,Events!A:E,2,FALSE)),"",VLOOKUP(F56,Events!A:E,2,FALSE)))</f>
-        <v>Sibiu - Romania</v>
-      </c>
-      <c r="H56" s="7">
+        <v/>
+      </c>
+      <c r="H56" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F56,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F56,Events!A:E,3,FALSE)),"",VLOOKUP(F56,Events!A:E,3,FALSE)))</f>
-        <v>45962</v>
-      </c>
-      <c r="I56" s="3"/>
+        <v/>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="13"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C57" s="13">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F57,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F57,Events!A:E,2,FALSE)),"",VLOOKUP(F57,Events!A:E,2,FALSE)))</f>
-        <v>Sibiu - Romania</v>
-      </c>
-      <c r="H57" s="7">
+        <v/>
+      </c>
+      <c r="H57" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F57,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F57,Events!A:E,3,FALSE)),"",VLOOKUP(F57,Events!A:E,3,FALSE)))</f>
-        <v>45962</v>
+        <v/>
       </c>
       <c r="I57" s="3" t="s">
         <v>7</v>
@@ -2968,78 +2971,71 @@
       <c r="K57" s="13"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="13">
-        <v>3</v>
-      </c>
-      <c r="D58" s="13">
-        <v>2</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F58,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F58,Events!A:E,2,FALSE)),"",VLOOKUP(F58,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H58" s="7" t="str">
+    <row r="58" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F58,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F58,Events!A:E,3,FALSE)),"",VLOOKUP(F58,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="3"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C59" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="13">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G59" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F59,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F59,Events!A:E,2,FALSE)),"",VLOOKUP(F59,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H59" s="7" t="str">
+        <v>Sibiu - Romania</v>
+      </c>
+      <c r="H59" s="7">
         <f>IF(ISNA(VLOOKUP(F59,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F59,Events!A:E,3,FALSE)),"",VLOOKUP(F59,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>45962</v>
+      </c>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="13"/>
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="C60" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" s="13">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F60,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F60,Events!A:E,2,FALSE)),"",VLOOKUP(F60,Events!A:E,2,FALSE)))</f>
@@ -3049,565 +3045,567 @@
         <f>IF(ISNA(VLOOKUP(F60,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F60,Events!A:E,3,FALSE)),"",VLOOKUP(F60,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="13"/>
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>71</v>
+        <v>156</v>
+      </c>
+      <c r="C61" s="13">
+        <v>3</v>
       </c>
       <c r="D61" s="13">
-        <v>6</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G61" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F61,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F61,Events!A:E,2,FALSE)),"",VLOOKUP(F61,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H61" s="7" t="str">
+        <v>Sibiu - Romania</v>
+      </c>
+      <c r="H61" s="7">
         <f>IF(ISNA(VLOOKUP(F61,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F61,Events!A:E,3,FALSE)),"",VLOOKUP(F61,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45962</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="13"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11" t="str">
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="13">
+        <v>4</v>
+      </c>
+      <c r="D62" s="13">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F62,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F62,Events!A:E,2,FALSE)),"",VLOOKUP(F62,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H62" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F62,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F62,Events!A:E,3,FALSE)),"",VLOOKUP(F62,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="10"/>
+      <c r="I62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="19">
-        <v>1</v>
-      </c>
-      <c r="D63" s="19">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C63" s="13">
+        <v>5</v>
+      </c>
+      <c r="D63" s="13">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F63,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F63,Events!A:E,2,FALSE)),"",VLOOKUP(F63,Events!A:E,2,FALSE)))</f>
-        <v>Brno - Czechia</v>
-      </c>
-      <c r="H63" s="7">
+        <v/>
+      </c>
+      <c r="H63" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F63,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F63,Events!A:E,3,FALSE)),"",VLOOKUP(F63,Events!A:E,3,FALSE)))</f>
-        <v>45948</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="13"/>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="13">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D64" s="13">
-        <v>5</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
       <c r="G64" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F64,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F64,Events!A:E,2,FALSE)),"",VLOOKUP(F64,Events!A:E,2,FALSE)))</f>
-        <v>Brno - Czechia</v>
-      </c>
-      <c r="H64" s="7">
+        <v/>
+      </c>
+      <c r="H64" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F64,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F64,Events!A:E,3,FALSE)),"",VLOOKUP(F64,Events!A:E,3,FALSE)))</f>
-        <v>45948</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="13"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="13">
-        <v>3</v>
-      </c>
-      <c r="D65" s="13">
-        <v>3</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F65,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F65,Events!A:E,2,FALSE)),"",VLOOKUP(F65,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H65" s="7" t="str">
+    <row r="65" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F65,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F65,Events!A:E,3,FALSE)),"",VLOOKUP(F65,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="3"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="10"/>
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="13">
-        <v>4</v>
-      </c>
-      <c r="D66" s="13">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C66" s="19">
+        <v>1</v>
+      </c>
+      <c r="D66" s="19">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G66" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F66,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F66,Events!A:E,2,FALSE)),"",VLOOKUP(F66,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H66" s="7" t="str">
+        <v>Brno - Czechia</v>
+      </c>
+      <c r="H66" s="7">
         <f>IF(ISNA(VLOOKUP(F66,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F66,Events!A:E,3,FALSE)),"",VLOOKUP(F66,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I66" s="3"/>
+        <v>45948</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J66" s="3"/>
       <c r="K66" s="13"/>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C67" s="13">
+        <v>2</v>
+      </c>
+      <c r="D67" s="13">
         <v>5</v>
       </c>
-      <c r="D67" s="13">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G67" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F67,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F67,Events!A:E,2,FALSE)),"",VLOOKUP(F67,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H67" s="7" t="str">
+        <v>Brno - Czechia</v>
+      </c>
+      <c r="H67" s="7">
         <f>IF(ISNA(VLOOKUP(F67,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F67,Events!A:E,3,FALSE)),"",VLOOKUP(F67,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I67" s="3"/>
+        <v>45948</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J67" s="3"/>
       <c r="K67" s="13"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11" t="str">
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="13">
+        <v>3</v>
+      </c>
+      <c r="D68" s="13">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F68,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F68,Events!A:E,2,FALSE)),"",VLOOKUP(F68,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H68" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F68,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F68,Events!A:E,3,FALSE)),"",VLOOKUP(F68,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="10"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="C69" s="13">
+        <v>4</v>
       </c>
       <c r="D69" s="13">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
       <c r="G69" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F69,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F69,Events!A:E,2,FALSE)),"",VLOOKUP(F69,Events!A:E,2,FALSE)))</f>
-        <v>Sarajevo - Bosnia and Herzegovina</v>
-      </c>
-      <c r="H69" s="7">
+        <v/>
+      </c>
+      <c r="H69" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F69,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F69,Events!A:E,3,FALSE)),"",VLOOKUP(F69,Events!A:E,3,FALSE)))</f>
-        <v>45990</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="13"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11" t="str">
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="13">
+        <v>5</v>
+      </c>
+      <c r="D70" s="13">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F70,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F70,Events!A:E,2,FALSE)),"",VLOOKUP(F70,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H70" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F70,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F70,Events!A:E,3,FALSE)),"",VLOOKUP(F70,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="10"/>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F71,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F71,Events!A:E,3,FALSE)),"",VLOOKUP(F71,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="10"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="13">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F72,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F72,Events!A:E,2,FALSE)),"",VLOOKUP(F72,Events!A:E,2,FALSE)))</f>
+        <v>Sarajevo - Bosnia and Herzegovina</v>
+      </c>
+      <c r="H72" s="7">
+        <f>IF(ISNA(VLOOKUP(F72,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F72,Events!A:E,3,FALSE)),"",VLOOKUP(F72,Events!A:E,3,FALSE)))</f>
+        <v>45990</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F73,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,3,FALSE)),"",VLOOKUP(F73,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="10"/>
+    </row>
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="13">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G71" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F71,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F71,Events!A:E,2,FALSE)),"",VLOOKUP(F71,Events!A:E,2,FALSE)))</f>
+      <c r="G74" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F74,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F74,Events!A:E,2,FALSE)),"",VLOOKUP(F74,Events!A:E,2,FALSE)))</f>
         <v>Batumi - Georgia</v>
       </c>
-      <c r="H71" s="7">
-        <f>IF(ISNA(VLOOKUP(F71,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F71,Events!A:E,3,FALSE)),"",VLOOKUP(F71,Events!A:E,3,FALSE)))</f>
+      <c r="H74" s="7">
+        <f>IF(ISNA(VLOOKUP(F74,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F74,Events!A:E,3,FALSE)),"",VLOOKUP(F74,Events!A:E,3,FALSE)))</f>
         <v>45843</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F72,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F72,Events!A:E,3,FALSE)),"",VLOOKUP(F72,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="10"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="J74" s="3"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F75,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F75,Events!A:E,3,FALSE)),"",VLOOKUP(F75,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="10"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="13">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G73" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F73,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,2,FALSE)),"",VLOOKUP(F73,Events!A:E,2,FALSE)))</f>
+      <c r="G76" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F76,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F76,Events!A:E,2,FALSE)),"",VLOOKUP(F76,Events!A:E,2,FALSE)))</f>
         <v>Brno - Czechia</v>
       </c>
-      <c r="H73" s="7">
-        <f>IF(ISNA(VLOOKUP(F73,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F73,Events!A:E,3,FALSE)),"",VLOOKUP(F73,Events!A:E,3,FALSE)))</f>
+      <c r="H76" s="7">
+        <f>IF(ISNA(VLOOKUP(F76,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F76,Events!A:E,3,FALSE)),"",VLOOKUP(F76,Events!A:E,3,FALSE)))</f>
         <v>45946</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F74,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F74,Events!A:E,3,FALSE)),"",VLOOKUP(F74,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="10"/>
-    </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F75,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F75,Events!A:E,2,FALSE)),"",VLOOKUP(F75,Events!A:E,2,FALSE)))</f>
-        <v>New Jersey - United States</v>
-      </c>
-      <c r="H75" s="7">
-        <f>IF(ISNA(VLOOKUP(F75,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F75,Events!A:E,3,FALSE)),"",VLOOKUP(F75,Events!A:E,3,FALSE)))</f>
-        <v>45913</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F76,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F76,Events!A:E,3,FALSE)),"",VLOOKUP(F76,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="10"/>
-    </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="19">
-        <v>1</v>
-      </c>
-      <c r="D77" s="19">
-        <v>1</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F77,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F77,Events!A:E,2,FALSE)),"",VLOOKUP(F77,Events!A:E,2,FALSE)))</f>
-        <v>Platja d'Aro - Spain</v>
-      </c>
-      <c r="H77" s="7">
+      <c r="J76" s="3"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F77,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F77,Events!A:E,3,FALSE)),"",VLOOKUP(F77,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J77" s="3"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="3"/>
+        <v/>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="10"/>
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="13">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D78" s="13">
-        <v>6</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G78" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F78,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F78,Events!A:E,2,FALSE)),"",VLOOKUP(F78,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H78" s="7" t="str">
+        <v>New Jersey - United States</v>
+      </c>
+      <c r="H78" s="7">
         <f>IF(ISNA(VLOOKUP(F78,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F78,Events!A:E,3,FALSE)),"",VLOOKUP(F78,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I78" s="3"/>
+        <v>45913</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J78" s="3"/>
       <c r="K78" s="13"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="13">
-        <v>3</v>
-      </c>
-      <c r="D79" s="13">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F79,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F79,Events!A:E,2,FALSE)),"",VLOOKUP(F79,Events!A:E,2,FALSE)))</f>
-        <v>Platja d'Aro - Spain</v>
-      </c>
-      <c r="H79" s="7">
+    <row r="79" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F79,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F79,Events!A:E,3,FALSE)),"",VLOOKUP(F79,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="3"/>
+        <v/>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="10"/>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="13">
-        <v>4</v>
-      </c>
-      <c r="D80" s="13">
-        <v>3</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C80" s="19">
+        <v>1</v>
+      </c>
+      <c r="D80" s="19">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G80" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F80,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F80,Events!A:E,2,FALSE)),"",VLOOKUP(F80,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H80" s="7" t="str">
+        <v>Platja d'Aro - Spain</v>
+      </c>
+      <c r="H80" s="7">
         <f>IF(ISNA(VLOOKUP(F80,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F80,Events!A:E,3,FALSE)),"",VLOOKUP(F80,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I80" s="3"/>
+        <v>45955</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J80" s="3"/>
       <c r="K80" s="13"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="C81" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3626,109 +3624,116 @@
     </row>
     <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C82" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" s="13">
-        <v>5</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G82" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F82,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F82,Events!A:E,2,FALSE)),"",VLOOKUP(F82,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H82" s="7" t="str">
+        <v>Platja d'Aro - Spain</v>
+      </c>
+      <c r="H82" s="7">
         <f>IF(ISNA(VLOOKUP(F82,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F82,Events!A:E,3,FALSE)),"",VLOOKUP(F82,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I82" s="3"/>
+        <v>45955</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J82" s="3"/>
       <c r="K82" s="13"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="11" t="str">
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="13">
+        <v>4</v>
+      </c>
+      <c r="D83" s="13">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F83,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F83,Events!A:E,2,FALSE)),"",VLOOKUP(F83,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H83" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F83,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F83,Events!A:E,3,FALSE)),"",VLOOKUP(F83,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="10"/>
-    </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C84" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84" s="13">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F84,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F84,Events!A:E,2,FALSE)),"",VLOOKUP(F84,Events!A:E,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F84,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F84,Events!A:E,3,FALSE)),"",VLOOKUP(F84,Events!A:E,3,FALSE)))</f>
-        <v>45765</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="13"/>
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="C85" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D85" s="13">
-        <v>2</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F85,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F85,Events!A:E,2,FALSE)),"",VLOOKUP(F85,Events!A:E,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F85,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F85,Events!A:E,3,FALSE)),"",VLOOKUP(F85,Events!A:E,3,FALSE)))</f>
-        <v>45765</v>
+        <v/>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -3754,30 +3759,30 @@
     </row>
     <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1</v>
       </c>
       <c r="D87" s="13">
         <v>1</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G87" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F87,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F87,Events!A:E,2,FALSE)),"",VLOOKUP(F87,Events!A:E,2,FALSE)))</f>
-        <v>Vagos - Portugal</v>
+        <v/>
       </c>
       <c r="H87" s="7">
         <f>IF(ISNA(VLOOKUP(F87,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F87,Events!A:E,3,FALSE)),"",VLOOKUP(F87,Events!A:E,3,FALSE)))</f>
-        <v>45927</v>
+        <v>45765</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>7</v>
@@ -3788,94 +3793,102 @@
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C88" s="13">
+        <v>2</v>
       </c>
       <c r="D88" s="13">
         <v>2</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="G88" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F88,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F88,Events!A:E,2,FALSE)),"",VLOOKUP(F88,Events!A:E,2,FALSE)))</f>
         <v/>
       </c>
-      <c r="H88" s="7" t="str">
+      <c r="H88" s="7">
         <f>IF(ISNA(VLOOKUP(F88,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F88,Events!A:E,3,FALSE)),"",VLOOKUP(F88,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45765</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="13"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="13" t="s">
+    <row r="89" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F89,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F89,Events!A:E,3,FALSE)),"",VLOOKUP(F89,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="10"/>
+    </row>
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D89" s="13">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F89,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F89,Events!A:E,2,FALSE)),"",VLOOKUP(F89,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H89" s="7" t="str">
-        <f>IF(ISNA(VLOOKUP(F89,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F89,Events!A:E,3,FALSE)),"",VLOOKUP(F89,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="11" t="str">
+      <c r="D90" s="13">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F90,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F90,Events!A:E,2,FALSE)),"",VLOOKUP(F90,Events!A:E,2,FALSE)))</f>
+        <v>Vagos - Portugal</v>
+      </c>
+      <c r="H90" s="7">
         <f>IF(ISNA(VLOOKUP(F90,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F90,Events!A:E,3,FALSE)),"",VLOOKUP(F90,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="10"/>
+        <v>45927</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C91" s="13">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D91" s="13">
         <v>2</v>
       </c>
       <c r="E91" s="3"/>
-      <c r="F91" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F91,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F91,Events!A:E,2,FALSE)),"",VLOOKUP(F91,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -3884,22 +3897,20 @@
         <f>IF(ISNA(VLOOKUP(F91,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F91,Events!A:E,3,FALSE)),"",VLOOKUP(F91,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="13"/>
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="13">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D92" s="13">
         <v>3</v>
@@ -3919,49 +3930,40 @@
       <c r="K92" s="13"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="13">
-        <v>3</v>
-      </c>
-      <c r="D93" s="13">
-        <v>4</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F93,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F93,Events!A:E,2,FALSE)),"",VLOOKUP(F93,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H93" s="7" t="str">
+    <row r="93" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F93,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F93,Events!A:E,3,FALSE)),"",VLOOKUP(F93,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="3"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="10"/>
     </row>
     <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C94" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D94" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G94" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F94,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F94,Events!A:E,2,FALSE)),"",VLOOKUP(F94,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -3970,28 +3972,28 @@
         <f>IF(ISNA(VLOOKUP(F94,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F94,Events!A:E,3,FALSE)),"",VLOOKUP(F94,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I94" s="3"/>
+      <c r="I94" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J94" s="3"/>
       <c r="K94" s="13"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="C95" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" s="3"/>
-      <c r="F95" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F95" s="3"/>
       <c r="G95" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F95,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F95,Events!A:E,2,FALSE)),"",VLOOKUP(F95,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -4000,25 +4002,23 @@
         <f>IF(ISNA(VLOOKUP(F95,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F95,Events!A:E,3,FALSE)),"",VLOOKUP(F95,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="13"/>
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C96" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D96" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -4035,52 +4035,61 @@
       <c r="K96" s="13"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="11" t="str">
+    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C97" s="13">
+        <v>4</v>
+      </c>
+      <c r="D97" s="13">
+        <v>6</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F97,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F97,Events!A:E,2,FALSE)),"",VLOOKUP(F97,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H97" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F97,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F97,Events!A:E,3,FALSE)),"",VLOOKUP(F97,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="10"/>
-    </row>
-    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C98" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" s="13">
-        <v>2</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E98" s="3"/>
       <c r="F98" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G98" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F98,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F98,Events!A:E,2,FALSE)),"",VLOOKUP(F98,Events!A:E,2,FALSE)))</f>
-        <v>Vagos - Portugal</v>
-      </c>
-      <c r="H98" s="7">
+        <v/>
+      </c>
+      <c r="H98" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F98,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F98,Events!A:E,3,FALSE)),"",VLOOKUP(F98,Events!A:E,3,FALSE)))</f>
-        <v>45928</v>
+        <v/>
       </c>
       <c r="I98" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="13"/>
@@ -4088,16 +4097,16 @@
     </row>
     <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="C99" s="13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D99" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -4114,46 +4123,35 @@
       <c r="K99" s="13"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" s="13">
-        <v>3</v>
-      </c>
-      <c r="D100" s="13">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F100,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F100,Events!A:E,2,FALSE)),"",VLOOKUP(F100,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H100" s="7" t="str">
+    <row r="100" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F100,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F100,Events!A:E,3,FALSE)),"",VLOOKUP(F100,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="3"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="10"/>
     </row>
     <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C101" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D101" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>205</v>
@@ -4170,7 +4168,7 @@
         <v>45928</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="13"/>
@@ -4178,16 +4176,16 @@
     </row>
     <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C102" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D102" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -4204,234 +4202,240 @@
       <c r="K102" s="13"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="11" t="str">
+    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="13">
+        <v>3</v>
+      </c>
+      <c r="D103" s="13">
+        <v>4</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F103,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F103,Events!A:E,2,FALSE)),"",VLOOKUP(F103,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H103" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F103,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F103,Events!A:E,3,FALSE)),"",VLOOKUP(F103,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="10"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="3"/>
     </row>
     <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="C104" s="13">
+        <v>4</v>
       </c>
       <c r="D104" s="13">
         <v>1</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F104" s="3" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="G104" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F104,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F104,Events!A:E,2,FALSE)),"",VLOOKUP(F104,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H104" s="7" t="str">
+        <v>Vagos - Portugal</v>
+      </c>
+      <c r="H104" s="7">
         <f>IF(ISNA(VLOOKUP(F104,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F104,Events!A:E,3,FALSE)),"",VLOOKUP(F104,Events!A:E,3,FALSE)))</f>
-        <v/>
+        <v>45928</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J104" s="3"/>
-      <c r="K104" s="18"/>
+      <c r="K104" s="13"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="11" t="str">
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="13">
+        <v>5</v>
+      </c>
+      <c r="D105" s="13">
+        <v>5</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F105,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F105,Events!A:E,2,FALSE)),"",VLOOKUP(F105,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H105" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F105,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F105,Events!A:E,3,FALSE)),"",VLOOKUP(F105,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="10"/>
-    </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="19">
-        <v>1</v>
-      </c>
-      <c r="D106" s="19">
-        <v>1</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F106,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F106,Events!A:E,2,FALSE)),"",VLOOKUP(F106,Events!A:E,2,FALSE)))</f>
-        <v>Elblag - Poland</v>
-      </c>
-      <c r="H106" s="7">
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F106,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F106,Events!A:E,3,FALSE)),"",VLOOKUP(F106,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="3"/>
+        <v/>
+      </c>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="10"/>
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C107" s="13">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D107" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="G107" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F107,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F107,Events!A:E,2,FALSE)),"",VLOOKUP(F107,Events!A:E,2,FALSE)))</f>
-        <v>Elblag - Poland</v>
-      </c>
-      <c r="H107" s="7">
+        <v/>
+      </c>
+      <c r="H107" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F107,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F107,Events!A:E,3,FALSE)),"",VLOOKUP(F107,Events!A:E,3,FALSE)))</f>
-        <v>45955</v>
+        <v/>
       </c>
       <c r="I107" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J107" s="3"/>
-      <c r="K107" s="13"/>
+      <c r="K107" s="18"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C108" s="13">
-        <v>3</v>
-      </c>
-      <c r="D108" s="13">
-        <v>2</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F108,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F108,Events!A:E,2,FALSE)),"",VLOOKUP(F108,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H108" s="7" t="str">
+    <row r="108" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F108,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F108,Events!A:E,3,FALSE)),"",VLOOKUP(F108,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="3"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="10"/>
     </row>
     <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="13">
-        <v>4</v>
-      </c>
-      <c r="D109" s="13">
-        <v>4</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="C109" s="19">
+        <v>1</v>
+      </c>
+      <c r="D109" s="19">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G109" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F109,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F109,Events!A:E,2,FALSE)),"",VLOOKUP(F109,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H109" s="7" t="str">
+        <v>Elblag - Poland</v>
+      </c>
+      <c r="H109" s="7">
         <f>IF(ISNA(VLOOKUP(F109,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F109,Events!A:E,3,FALSE)),"",VLOOKUP(F109,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I109" s="3"/>
+        <v>45955</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J109" s="3"/>
       <c r="K109" s="13"/>
       <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>71</v>
+        <v>169</v>
+      </c>
+      <c r="C110" s="13">
+        <v>2</v>
       </c>
       <c r="D110" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G110" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F110,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F110,Events!A:E,2,FALSE)),"",VLOOKUP(F110,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H110" s="7" t="str">
+        <v>Elblag - Poland</v>
+      </c>
+      <c r="H110" s="7">
         <f>IF(ISNA(VLOOKUP(F110,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F110,Events!A:E,3,FALSE)),"",VLOOKUP(F110,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I110" s="3"/>
+        <v>45955</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J110" s="3"/>
       <c r="K110" s="13"/>
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="C111" s="13">
+        <v>3</v>
       </c>
       <c r="D111" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -4448,328 +4452,328 @@
       <c r="K111" s="13"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="11" t="str">
+    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="13">
+        <v>4</v>
+      </c>
+      <c r="D112" s="13">
+        <v>4</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F112,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F112,Events!A:E,2,FALSE)),"",VLOOKUP(F112,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H112" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F112,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F112,Events!A:E,3,FALSE)),"",VLOOKUP(F112,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="10"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="3"/>
     </row>
     <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="13">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D113" s="13">
-        <v>2</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
       <c r="G113" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F113,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F113,Events!A:E,2,FALSE)),"",VLOOKUP(F113,Events!A:E,2,FALSE)))</f>
-        <v>Vienna - Austria</v>
-      </c>
-      <c r="H113" s="7">
+        <v/>
+      </c>
+      <c r="H113" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F113,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F113,Events!A:E,3,FALSE)),"",VLOOKUP(F113,Events!A:E,3,FALSE)))</f>
-        <v>45856</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="13"/>
       <c r="L113" s="3"/>
     </row>
     <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" s="13">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D114" s="13">
-        <v>1</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
       <c r="G114" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F114,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F114,Events!A:E,2,FALSE)),"",VLOOKUP(F114,Events!A:E,2,FALSE)))</f>
-        <v>Vienna - Austria</v>
-      </c>
-      <c r="H114" s="7">
+        <v/>
+      </c>
+      <c r="H114" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F114,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F114,Events!A:E,3,FALSE)),"",VLOOKUP(F114,Events!A:E,3,FALSE)))</f>
-        <v>45856</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="13"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="13">
-        <v>3</v>
-      </c>
-      <c r="D115" s="13">
-        <v>3</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F115,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F115,Events!A:E,2,FALSE)),"",VLOOKUP(F115,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H115" s="7" t="str">
+    <row r="115" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F115,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F115,Events!A:E,3,FALSE)),"",VLOOKUP(F115,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="3"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="10"/>
     </row>
     <row r="116" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C116" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D116" s="13">
-        <v>5</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G116" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F116,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F116,Events!A:E,2,FALSE)),"",VLOOKUP(F116,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H116" s="7" t="str">
+        <v>Vienna - Austria</v>
+      </c>
+      <c r="H116" s="7">
         <f>IF(ISNA(VLOOKUP(F116,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F116,Events!A:E,3,FALSE)),"",VLOOKUP(F116,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I116" s="3"/>
+        <v>45856</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J116" s="3"/>
       <c r="K116" s="13"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="11" t="str">
+    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="13">
+        <v>2</v>
+      </c>
+      <c r="D117" s="13">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F117,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F117,Events!A:E,2,FALSE)),"",VLOOKUP(F117,Events!A:E,2,FALSE)))</f>
+        <v>Vienna - Austria</v>
+      </c>
+      <c r="H117" s="7">
         <f>IF(ISNA(VLOOKUP(F117,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F117,Events!A:E,3,FALSE)),"",VLOOKUP(F117,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="10"/>
+        <v>45856</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C118" s="19">
-        <v>1</v>
-      </c>
-      <c r="D118" s="19">
-        <v>1</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C118" s="13">
+        <v>3</v>
+      </c>
+      <c r="D118" s="13">
+        <v>3</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
       <c r="G118" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F118,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F118,Events!A:E,2,FALSE)),"",VLOOKUP(F118,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
-      </c>
-      <c r="H118" s="7">
+        <v/>
+      </c>
+      <c r="H118" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F118,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F118,Events!A:E,3,FALSE)),"",VLOOKUP(F118,Events!A:E,3,FALSE)))</f>
-        <v>45814</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="13"/>
       <c r="L118" s="3"/>
     </row>
     <row r="119" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C119" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D119" s="13">
-        <v>3</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
       <c r="G119" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F119,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F119,Events!A:E,2,FALSE)),"",VLOOKUP(F119,Events!A:E,2,FALSE)))</f>
-        <v>Bremen - Germany</v>
-      </c>
-      <c r="H119" s="7">
+        <v/>
+      </c>
+      <c r="H119" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F119,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F119,Events!A:E,3,FALSE)),"",VLOOKUP(F119,Events!A:E,3,FALSE)))</f>
-        <v>45814</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="13"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="13">
-        <v>3</v>
-      </c>
-      <c r="D120" s="13">
-        <v>5</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F120,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F120,Events!A:E,2,FALSE)),"",VLOOKUP(F120,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H120" s="7" t="str">
+    <row r="120" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F120,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F120,Events!A:E,3,FALSE)),"",VLOOKUP(F120,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="3"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="10"/>
     </row>
     <row r="121" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C121" s="13">
-        <v>4</v>
-      </c>
-      <c r="D121" s="13">
-        <v>4</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="C121" s="19">
+        <v>1</v>
+      </c>
+      <c r="D121" s="19">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G121" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F121,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F121,Events!A:E,2,FALSE)),"",VLOOKUP(F121,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H121" s="7" t="str">
+        <v>Bremen - Germany</v>
+      </c>
+      <c r="H121" s="7">
         <f>IF(ISNA(VLOOKUP(F121,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F121,Events!A:E,3,FALSE)),"",VLOOKUP(F121,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I121" s="3"/>
+        <v>45814</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J121" s="3"/>
       <c r="K121" s="13"/>
       <c r="L121" s="3"/>
     </row>
     <row r="122" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C122" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D122" s="13">
-        <v>2</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G122" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F122,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F122,Events!A:E,2,FALSE)),"",VLOOKUP(F122,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H122" s="7" t="str">
+        <v>Bremen - Germany</v>
+      </c>
+      <c r="H122" s="7">
         <f>IF(ISNA(VLOOKUP(F122,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F122,Events!A:E,3,FALSE)),"",VLOOKUP(F122,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I122" s="3"/>
+        <v>45814</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J122" s="3"/>
       <c r="K122" s="13"/>
       <c r="L122" s="3"/>
     </row>
     <row r="123" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C123" s="13">
+        <v>3</v>
       </c>
       <c r="D123" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -4786,40 +4790,49 @@
       <c r="K123" s="13"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="11" t="str">
+    <row r="124" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="13">
+        <v>4</v>
+      </c>
+      <c r="D124" s="13">
+        <v>4</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F124,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F124,Events!A:E,2,FALSE)),"",VLOOKUP(F124,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H124" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F124,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F124,Events!A:E,3,FALSE)),"",VLOOKUP(F124,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="10"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C125" s="19">
-        <v>1</v>
-      </c>
-      <c r="D125" s="19">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C125" s="13">
+        <v>5</v>
+      </c>
+      <c r="D125" s="13">
+        <v>2</v>
       </c>
       <c r="E125" s="3"/>
-      <c r="F125" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F125" s="3"/>
       <c r="G125" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F125,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F125,Events!A:E,2,FALSE)),"",VLOOKUP(F125,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -4828,30 +4841,26 @@
         <f>IF(ISNA(VLOOKUP(F125,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F125,Events!A:E,3,FALSE)),"",VLOOKUP(F125,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="13"/>
       <c r="L125" s="3"/>
     </row>
     <row r="126" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C126" s="13">
-        <v>2</v>
+        <v>182</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D126" s="13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E126" s="3"/>
-      <c r="F126" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F126" s="3"/>
       <c r="G126" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F126,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F126,Events!A:E,2,FALSE)),"",VLOOKUP(F126,Events!A:E,2,FALSE)))</f>
         <v/>
@@ -4860,106 +4869,106 @@
         <f>IF(ISNA(VLOOKUP(F126,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F126,Events!A:E,3,FALSE)),"",VLOOKUP(F126,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I126" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="13"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="13">
-        <v>3</v>
-      </c>
-      <c r="D127" s="13">
-        <v>2</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F127,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F127,Events!A:E,2,FALSE)),"",VLOOKUP(F127,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H127" s="7" t="str">
+    <row r="127" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F127,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F127,Events!A:E,3,FALSE)),"",VLOOKUP(F127,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="11" t="str">
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="10"/>
+    </row>
+    <row r="128" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="19">
+        <v>1</v>
+      </c>
+      <c r="D128" s="19">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F128,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F128,Events!A:E,2,FALSE)),"",VLOOKUP(F128,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H128" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F128,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F128,Events!A:E,3,FALSE)),"",VLOOKUP(F128,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="10"/>
+      <c r="I128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" s="3"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="3"/>
     </row>
     <row r="129" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>71</v>
+        <v>184</v>
+      </c>
+      <c r="C129" s="13">
+        <v>2</v>
       </c>
       <c r="D129" s="13">
-        <v>1</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G129" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F129,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F129,Events!A:E,2,FALSE)),"",VLOOKUP(F129,Events!A:E,2,FALSE)))</f>
-        <v>Tokyo - Japan</v>
-      </c>
-      <c r="H129" s="7">
+        <v/>
+      </c>
+      <c r="H129" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F129,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F129,Events!A:E,3,FALSE)),"",VLOOKUP(F129,Events!A:E,3,FALSE)))</f>
-        <v>45803</v>
-      </c>
-      <c r="I129" s="3"/>
+        <v/>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J129" s="3"/>
       <c r="K129" s="13"/>
       <c r="L129" s="3"/>
     </row>
     <row r="130" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C130" s="13">
+        <v>3</v>
       </c>
       <c r="D130" s="13">
         <v>2</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F130,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F130,Events!A:E,2,FALSE)),"",VLOOKUP(F130,Events!A:E,2,FALSE)))</f>
@@ -4974,81 +4983,79 @@
       <c r="K130" s="13"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C131" s="13" t="s">
+    <row r="131" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F131,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F131,Events!A:E,3,FALSE)),"",VLOOKUP(F131,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="10"/>
+    </row>
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D131" s="13">
-        <v>3</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="D132" s="13">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G131" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F131,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F131,Events!A:E,2,FALSE)),"",VLOOKUP(F131,Events!A:E,2,FALSE)))</f>
+      <c r="G132" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F132,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F132,Events!A:E,2,FALSE)),"",VLOOKUP(F132,Events!A:E,2,FALSE)))</f>
         <v>Tokyo - Japan</v>
       </c>
-      <c r="H131" s="7">
-        <f>IF(ISNA(VLOOKUP(F131,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F131,Events!A:E,3,FALSE)),"",VLOOKUP(F131,Events!A:E,3,FALSE)))</f>
+      <c r="H132" s="7">
+        <f>IF(ISNA(VLOOKUP(F132,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F132,Events!A:E,3,FALSE)),"",VLOOKUP(F132,Events!A:E,3,FALSE)))</f>
         <v>45803</v>
       </c>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="3"/>
-    </row>
-    <row r="132" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F132,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F132,Events!A:E,3,FALSE)),"",VLOOKUP(F132,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="10"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="3"/>
     </row>
     <row r="133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D133" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F133" s="3"/>
       <c r="G133" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F133,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F133,Events!A:E,2,FALSE)),"",VLOOKUP(F133,Events!A:E,2,FALSE)))</f>
-        <v>Leipzig - Germany</v>
-      </c>
-      <c r="H133" s="7">
+        <v/>
+      </c>
+      <c r="H133" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F133,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F133,Events!A:E,3,FALSE)),"",VLOOKUP(F133,Events!A:E,3,FALSE)))</f>
-        <v>45948</v>
+        <v/>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -5057,30 +5064,30 @@
     </row>
     <row r="134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D134" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G134" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F134,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F134,Events!A:E,2,FALSE)),"",VLOOKUP(F134,Events!A:E,2,FALSE)))</f>
-        <v>Leipzig - Germany</v>
+        <v>Tokyo - Japan</v>
       </c>
       <c r="H134" s="7">
         <f>IF(ISNA(VLOOKUP(F134,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F134,Events!A:E,3,FALSE)),"",VLOOKUP(F134,Events!A:E,3,FALSE)))</f>
-        <v>45948</v>
+        <v>45803</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -5105,247 +5112,253 @@
       <c r="L135" s="10"/>
     </row>
     <row r="136" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="C136" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D136" s="13">
         <v>1</v>
       </c>
-      <c r="E136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F136" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F136,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F136,Events!A:E,2,FALSE)),"",VLOOKUP(F136,Events!A:E,2,FALSE)))</f>
-        <v>Sibiu - Romania</v>
+        <v>Leipzig - Germany</v>
       </c>
       <c r="H136" s="7">
         <f>IF(ISNA(VLOOKUP(F136,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F136,Events!A:E,3,FALSE)),"",VLOOKUP(F136,Events!A:E,3,FALSE)))</f>
-        <v>45963</v>
+        <v>45948</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="13"/>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="11" t="str">
+    <row r="137" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D137" s="13">
+        <v>2</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G137" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F137,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F137,Events!A:E,2,FALSE)),"",VLOOKUP(F137,Events!A:E,2,FALSE)))</f>
+        <v>Leipzig - Germany</v>
+      </c>
+      <c r="H137" s="7">
         <f>IF(ISNA(VLOOKUP(F137,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F137,Events!A:E,3,FALSE)),"",VLOOKUP(F137,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="14"/>
-      <c r="L137" s="10"/>
-    </row>
-    <row r="138" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+        <v>45948</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F138,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F138,Events!A:E,3,FALSE)),"",VLOOKUP(F138,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="10"/>
+    </row>
+    <row r="139" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D139" s="13">
+        <v>1</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F139,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F139,Events!A:E,2,FALSE)),"",VLOOKUP(F139,Events!A:E,2,FALSE)))</f>
+        <v>Sibiu - Romania</v>
+      </c>
+      <c r="H139" s="7">
+        <f>IF(ISNA(VLOOKUP(F139,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F139,Events!A:E,3,FALSE)),"",VLOOKUP(F139,Events!A:E,3,FALSE)))</f>
+        <v>45963</v>
+      </c>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F140,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F140,Events!A:E,3,FALSE)),"",VLOOKUP(F140,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="10"/>
+    </row>
+    <row r="141" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C141" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D138" s="13">
-        <v>1</v>
-      </c>
-      <c r="E138" s="3" t="s">
+      <c r="D141" s="13">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G138" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F138,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F138,Events!A:E,2,FALSE)),"",VLOOKUP(F138,Events!A:E,2,FALSE)))</f>
+      <c r="G141" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F141,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F141,Events!A:E,2,FALSE)),"",VLOOKUP(F141,Events!A:E,2,FALSE)))</f>
         <v>London - United Kingdom</v>
       </c>
-      <c r="H138" s="7">
-        <f>IF(ISNA(VLOOKUP(F138,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F138,Events!A:E,3,FALSE)),"",VLOOKUP(F138,Events!A:E,3,FALSE)))</f>
+      <c r="H141" s="7">
+        <f>IF(ISNA(VLOOKUP(F141,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F141,Events!A:E,3,FALSE)),"",VLOOKUP(F141,Events!A:E,3,FALSE)))</f>
         <v>45927</v>
       </c>
-      <c r="I138" s="3" t="s">
+      <c r="I141" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J138" s="3"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F139,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F139,Events!A:E,3,FALSE)),"",VLOOKUP(F139,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="10"/>
-    </row>
-    <row r="140" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="13" t="s">
+      <c r="J141" s="3"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="3"/>
+    </row>
+    <row r="142" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F142,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F142,Events!A:E,3,FALSE)),"",VLOOKUP(F142,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="10"/>
+    </row>
+    <row r="143" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D140" s="13">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3" t="s">
+      <c r="D143" s="13">
+        <v>1</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G140" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F140,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F140,Events!A:E,2,FALSE)),"",VLOOKUP(F140,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H140" s="7" t="str">
-        <f>IF(ISNA(VLOOKUP(F140,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F140,Events!A:E,3,FALSE)),"",VLOOKUP(F140,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I140" s="3" t="s">
+      <c r="G143" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F143,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F143,Events!A:E,2,FALSE)),"",VLOOKUP(F143,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H143" s="7" t="str">
+        <f>IF(ISNA(VLOOKUP(F143,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F143,Events!A:E,3,FALSE)),"",VLOOKUP(F143,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J140" s="3"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="3"/>
-    </row>
-    <row r="141" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F141,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F141,Events!A:E,3,FALSE)),"",VLOOKUP(F141,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="14"/>
-      <c r="L141" s="10"/>
-    </row>
-    <row r="142" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" s="13">
-        <v>1</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G142" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F142,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F142,Events!A:E,2,FALSE)),"",VLOOKUP(F142,Events!A:E,2,FALSE)))</f>
-        <v>Sarajevo - Bosnia and Herzegovina</v>
-      </c>
-      <c r="H142" s="7">
-        <f>IF(ISNA(VLOOKUP(F142,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F142,Events!A:E,3,FALSE)),"",VLOOKUP(F142,Events!A:E,3,FALSE)))</f>
-        <v>45989</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J142" s="3"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F143,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F143,Events!A:E,3,FALSE)),"",VLOOKUP(F143,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="14"/>
-      <c r="L143" s="10"/>
-    </row>
-    <row r="144" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D144" s="13">
-        <v>1</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G144" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F144,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F144,Events!A:E,2,FALSE)),"",VLOOKUP(F144,Events!A:E,2,FALSE)))</f>
-        <v>Tbilisi - Georgia</v>
-      </c>
-      <c r="H144" s="7">
+      <c r="J143" s="3"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F144,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F144,Events!A:E,3,FALSE)),"",VLOOKUP(F144,Events!A:E,3,FALSE)))</f>
-        <v>45794</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J144" s="3"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="3"/>
+        <v/>
+      </c>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="10"/>
     </row>
     <row r="145" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D145" s="13">
-        <v>2</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="G145" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F145,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F145,Events!A:E,2,FALSE)),"",VLOOKUP(F145,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H145" s="7" t="str">
+        <v>Sarajevo - Bosnia and Herzegovina</v>
+      </c>
+      <c r="H145" s="7">
         <f>IF(ISNA(VLOOKUP(F145,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F145,Events!A:E,3,FALSE)),"",VLOOKUP(F145,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I145" s="3"/>
+        <v>45989</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J145" s="3"/>
       <c r="K145" s="18"/>
       <c r="L145" s="3"/>
@@ -5368,7 +5381,9 @@
       <c r="L146" s="10"/>
     </row>
     <row r="147" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3"/>
+      <c r="A147" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="B147" s="3"/>
       <c r="C147" s="13" t="s">
         <v>71</v>
@@ -5376,17 +5391,19 @@
       <c r="D147" s="13">
         <v>1</v>
       </c>
-      <c r="E147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="F147" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G147" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F147,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F147,Events!A:E,2,FALSE)),"",VLOOKUP(F147,Events!A:E,2,FALSE)))</f>
-        <v>Sarajevo - Bosnia and Herzegovina</v>
+        <v>Tbilisi - Georgia</v>
       </c>
       <c r="H147" s="7">
         <f>IF(ISNA(VLOOKUP(F147,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F147,Events!A:E,3,FALSE)),"",VLOOKUP(F147,Events!A:E,3,FALSE)))</f>
-        <v>45990</v>
+        <v>45794</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>7</v>
@@ -5395,77 +5412,73 @@
       <c r="K147" s="18"/>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="11" t="str">
+    <row r="148" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D148" s="13">
+        <v>2</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F148,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F148,Events!A:E,2,FALSE)),"",VLOOKUP(F148,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H148" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F148,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F148,Events!A:E,3,FALSE)),"",VLOOKUP(F148,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="14"/>
-      <c r="L148" s="10"/>
-    </row>
-    <row r="149" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D149" s="13">
-        <v>1</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G149" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F149,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F149,Events!A:E,2,FALSE)),"",VLOOKUP(F149,Events!A:E,2,FALSE)))</f>
-        <v>Tbilisi - Georgia</v>
-      </c>
-      <c r="H149" s="7">
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="3"/>
+    </row>
+    <row r="149" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(F149,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F149,Events!A:E,3,FALSE)),"",VLOOKUP(F149,Events!A:E,3,FALSE)))</f>
-        <v>45794</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J149" s="3"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="3"/>
+        <v/>
+      </c>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="10"/>
     </row>
     <row r="150" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D150" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="G150" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F150,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F150,Events!A:E,2,FALSE)),"",VLOOKUP(F150,Events!A:E,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H150" s="7" t="str">
+        <v>Sarajevo - Bosnia and Herzegovina</v>
+      </c>
+      <c r="H150" s="7">
         <f>IF(ISNA(VLOOKUP(F150,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F150,Events!A:E,3,FALSE)),"",VLOOKUP(F150,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I150" s="3"/>
+        <v>45990</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="18"/>
       <c r="L150" s="3"/>
@@ -5489,7 +5502,7 @@
     </row>
     <row r="152" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="13" t="s">
@@ -5502,15 +5515,15 @@
         <v>204</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G152" s="3" t="str">
         <f>IF(ISNA(VLOOKUP(F152,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F152,Events!A:E,2,FALSE)),"",VLOOKUP(F152,Events!A:E,2,FALSE)))</f>
-        <v>Sarajevo - Bosnia and Herzegovina</v>
+        <v>Tbilisi - Georgia</v>
       </c>
       <c r="H152" s="7">
         <f>IF(ISNA(VLOOKUP(F152,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F152,Events!A:E,3,FALSE)),"",VLOOKUP(F152,Events!A:E,3,FALSE)))</f>
-        <v>45991</v>
+        <v>45794</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>7</v>
@@ -5519,75 +5532,150 @@
       <c r="K152" s="18"/>
       <c r="L152" s="3"/>
     </row>
-    <row r="153" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="11" t="str">
+    <row r="153" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D153" s="13">
+        <v>2</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F153,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F153,Events!A:E,2,FALSE)),"",VLOOKUP(F153,Events!A:E,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H153" s="7" t="str">
         <f>IF(ISNA(VLOOKUP(F153,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F153,Events!A:E,3,FALSE)),"",VLOOKUP(F153,Events!A:E,3,FALSE)))</f>
         <v/>
       </c>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="14"/>
-      <c r="L153" s="10"/>
-    </row>
-    <row r="154" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F154,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F154,Events!A:E,3,FALSE)),"",VLOOKUP(F154,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="14"/>
+      <c r="L154" s="10"/>
+    </row>
+    <row r="155" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="13" t="s">
+      <c r="B155" s="3"/>
+      <c r="C155" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D154" s="13">
-        <v>1</v>
-      </c>
-      <c r="E154" s="3" t="s">
+      <c r="D155" s="13">
+        <v>1</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="F155" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G155" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F155,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F155,Events!A:E,2,FALSE)),"",VLOOKUP(F155,Events!A:E,2,FALSE)))</f>
+        <v>Sarajevo - Bosnia and Herzegovina</v>
+      </c>
+      <c r="H155" s="7">
+        <f>IF(ISNA(VLOOKUP(F155,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F155,Events!A:E,3,FALSE)),"",VLOOKUP(F155,Events!A:E,3,FALSE)))</f>
+        <v>45991</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J155" s="3"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="3"/>
+    </row>
+    <row r="156" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F156,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F156,Events!A:E,3,FALSE)),"",VLOOKUP(F156,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="10"/>
+    </row>
+    <row r="157" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D157" s="13">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G154" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP(F154,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F154,Events!A:E,2,FALSE)),"",VLOOKUP(F154,Events!A:E,2,FALSE)))</f>
+      <c r="G157" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP(F157,Events!A:E,2,FALSE)),"",IF(ISBLANK(VLOOKUP(F157,Events!A:E,2,FALSE)),"",VLOOKUP(F157,Events!A:E,2,FALSE)))</f>
         <v>Bremen - Germany</v>
       </c>
-      <c r="H154" s="7">
-        <f>IF(ISNA(VLOOKUP(F154,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F154,Events!A:E,3,FALSE)),"",VLOOKUP(F154,Events!A:E,3,FALSE)))</f>
+      <c r="H157" s="7">
+        <f>IF(ISNA(VLOOKUP(F157,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F157,Events!A:E,3,FALSE)),"",VLOOKUP(F157,Events!A:E,3,FALSE)))</f>
         <v>45816</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="I157" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J154" s="3"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="3"/>
-    </row>
-    <row r="155" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="11" t="str">
-        <f>IF(ISNA(VLOOKUP(F155,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F155,Events!A:E,3,FALSE)),"",VLOOKUP(F155,Events!A:E,3,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="14"/>
-      <c r="L155" s="10"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="11" t="str">
+        <f>IF(ISNA(VLOOKUP(F158,Events!A:E,3,FALSE)),"",IF(ISBLANK(VLOOKUP(F158,Events!A:E,3,FALSE)),"",VLOOKUP(F158,Events!A:E,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L155" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A2:A8 A10 A12:A13 A17:A19 A21:A23 A25 A28:A29 A31:A32 A34:A37 A39:A43 A45:A46 A47:B48 A49:A63 A65:A79 A81:A97 A99:A155">
+  <autoFilter ref="A1:L158" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A2:A8 A10 A12:A13 A17:A19 A28 A31:A32 A34:A35 A37:A40 A42:A46 A48:A49 A50:B51 A52:A66 A68:A82 A84:A100 A102:A158 A23:A26">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>OR(I2="Place",I2="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
@@ -5602,57 +5690,57 @@
       <formula>OR(I16="Place",I16="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15 A20">
+  <conditionalFormatting sqref="A15 A20:A21">
     <cfRule type="expression" dxfId="28" priority="3">
       <formula>OR(I14="Place",I14="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A27">
     <cfRule type="expression" dxfId="27" priority="9">
-      <formula>OR(I26="Place",I26="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="expression" dxfId="26" priority="69">
-      <formula>OR(I24="Place",I24="Rank",#REF!="Place",#REF!="Rank")</formula>
+      <formula>OR(I29="Place",I29="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="25" priority="7">
-      <formula>OR(I32="Place",I32="Rank",#REF!="Place",#REF!="Rank")</formula>
+    <cfRule type="expression" dxfId="26" priority="69">
+      <formula>OR(I27="Place",I27="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="24" priority="5">
-      <formula>OR(I30="Place",I30="Rank",#REF!="Place",#REF!="Rank")</formula>
+    <cfRule type="expression" dxfId="25" priority="7">
+      <formula>OR(I35="Place",I35="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>OR(I40="Place",I40="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="24" priority="5">
+      <formula>OR(I33="Place",I33="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="expression" dxfId="22" priority="42">
-      <formula>OR(I48="Place",I48="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>OR(I43="Place",I43="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="21" priority="28">
-      <formula>OR(I81="Place",I81="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="22" priority="42">
+      <formula>OR(I51="Place",I51="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="20" priority="32">
-      <formula>OR(I100="Place",I100="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="expression" dxfId="21" priority="28">
+      <formula>OR(I84="Place",I84="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B64">
+  <conditionalFormatting sqref="A101">
+    <cfRule type="expression" dxfId="20" priority="32">
+      <formula>OR(I103="Place",I103="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:B67">
     <cfRule type="expression" dxfId="19" priority="63">
       <formula>OR(#REF!="Place",#REF!="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B8 B10 B12:B13 B17:B19 B21:B23 B25 B28:B29 B31:B32 B34:B37 B39:B43 B45:B46 B49:B63 B65:B79 B81:B97 B99:B155">
+  <conditionalFormatting sqref="B2:B8 B10 B12:B13 B17:B19 B28 B31:B32 B34:B35 B37:B40 B42:B46 B48:B49 B52:B66 B68:B82 B84:B100 B102:B158 B23:B26">
     <cfRule type="expression" dxfId="18" priority="26">
       <formula>OR(I2="Place",I2="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
@@ -5667,49 +5755,49 @@
       <formula>OR(I16="Place",I16="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15 B20">
+  <conditionalFormatting sqref="B15 B20:B21">
     <cfRule type="expression" dxfId="15" priority="4">
       <formula>OR(I14="Place",I14="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B27">
     <cfRule type="expression" dxfId="14" priority="10">
-      <formula>OR(I26="Place",I26="Rank",#REF!="Place",#REF!="Rank")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="13" priority="71">
-      <formula>OR(I24="Place",I24="Rank",#REF!="Place",#REF!="Rank")</formula>
+      <formula>OR(I29="Place",I29="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>OR(I32="Place",I32="Rank",#REF!="Place",#REF!="Rank")</formula>
+    <cfRule type="expression" dxfId="13" priority="71">
+      <formula>OR(I27="Place",I27="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>OR(I30="Place",I30="Rank",#REF!="Place",#REF!="Rank")</formula>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>OR(I35="Place",I35="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>OR(I40="Place",I40="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>OR(I33="Place",I33="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="9" priority="44">
-      <formula>OR(I48="Place",I48="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>OR(I43="Place",I43="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="8" priority="30">
-      <formula>OR(I81="Place",I81="Rank",#REF!="Place",#REF!="Rank")</formula>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="9" priority="44">
+      <formula>OR(I51="Place",I51="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
+  <conditionalFormatting sqref="B83">
+    <cfRule type="expression" dxfId="8" priority="30">
+      <formula>OR(I84="Place",I84="Rank",#REF!="Place",#REF!="Rank")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101">
     <cfRule type="expression" dxfId="7" priority="34">
-      <formula>OR(I100="Place",I100="Rank",#REF!="Place",#REF!="Rank")</formula>
+      <formula>OR(I103="Place",I103="Rank",#REF!="Place",#REF!="Rank")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
@@ -5726,7 +5814,7 @@
       <formula>"Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H155">
+  <conditionalFormatting sqref="H2:H158">
     <cfRule type="cellIs" dxfId="2" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>TODAY()</formula>
     </cfRule>
@@ -5738,10 +5826,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E155" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E158" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Required,Required,Prepared,Sent,Accepted,Rejected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I155" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I158" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Place, Rank"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5754,13 +5842,13 @@
           <x14:formula1>
             <xm:f>Events!$A$6:$A$53</xm:f>
           </x14:formula1>
-          <xm:sqref>F155 F153 F151 F143 F146 F86 F141 F139 F137 F135 F132 F128 F124 F117 F112 F105 F103 F97 F90 F83 F76 F74 F148 F62 F55 F3 F43 F39 F35 F28 F19 F13:F14 F8:F9 F5 F1 F50 F72 F68 F70 F22:F24</xm:sqref>
+          <xm:sqref>F158 F156 F154 F146 F149 F89 F144 F142 F140 F138 F135 F131 F127 F120 F115 F108 F106 F100 F93 F86 F79 F77 F151 F65 F58 F3 F46 F42 F38 F31 F19 F13:F14 F8:F9 F5 F1 F53 F75 F71 F73 F25:F27 F11 F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA1A5BDD-BDAF-4F80-8DDA-7A1604F21FB4}">
           <x14:formula1>
             <xm:f>Events!$A$6:$A$55</xm:f>
           </x14:formula1>
-          <xm:sqref>F154 F152 F149:F150 F147 F144:F145 F142 F140 F138 F136 F106:F111 F125:F127 F118:F123 F113:F116 F98:F102 F104 F36:F38 F91:F96 F87:F89 F84:F85 F75 F73 F71 F63:F67 F56:F61 F51:F54 F129:F131 F40:F42 F133:F134 F29:F34 F20:F21 F77:F82 F69 F9:F12 F14:F18 F44:F49 F27 F23:F25</xm:sqref>
+          <xm:sqref>F157 F155 F152:F153 F150 F147:F148 F145 F143 F141 F139 F109:F114 F128:F130 F121:F126 F116:F119 F101:F105 F107 F39:F41 F94:F99 F90:F92 F87:F88 F78 F76 F74 F66:F70 F26:F28 F54:F57 F132:F134 F43:F45 F136:F137 F32:F37 F14:F18 F80:F85 F72 F59:F64 F9:F12 F47:F52 F30 F20:F24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BAD7700-9E34-42C3-AD29-A8CD551F0849}">
           <x14:formula1>
